--- a/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14900</v>
+        <v>10000</v>
       </c>
       <c r="E8" s="3">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="F8" s="3">
-        <v>12300</v>
+        <v>18000</v>
       </c>
       <c r="G8" s="3">
-        <v>9300</v>
+        <v>12000</v>
       </c>
       <c r="H8" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J8" s="3">
         <v>13100</v>
       </c>
-      <c r="I8" s="3">
-        <v>13400</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7200</v>
+        <v>6500</v>
       </c>
       <c r="E9" s="3">
-        <v>8300</v>
+        <v>7100</v>
       </c>
       <c r="F9" s="3">
-        <v>6600</v>
+        <v>8100</v>
       </c>
       <c r="G9" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="H9" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J9" s="3">
         <v>6200</v>
       </c>
-      <c r="I9" s="3">
-        <v>6400</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3000</v>
-      </c>
-      <c r="P9" s="3">
-        <v>3400</v>
       </c>
       <c r="Q9" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7600</v>
+        <v>3500</v>
       </c>
       <c r="E10" s="3">
-        <v>10200</v>
+        <v>7400</v>
       </c>
       <c r="F10" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K10" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L10" s="3">
         <v>5600</v>
       </c>
-      <c r="G10" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>6900</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
+        <v>8500</v>
+      </c>
+      <c r="N10" s="3">
+        <v>7300</v>
+      </c>
+      <c r="O10" s="3">
         <v>7000</v>
       </c>
-      <c r="J10" s="3">
-        <v>6900</v>
-      </c>
-      <c r="K10" s="3">
-        <v>5600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>8500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>7300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>7000</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,31 +1005,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>20400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1027,16 +1047,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,40 +1124,41 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>33500</v>
       </c>
       <c r="E17" s="3">
-        <v>14400</v>
+        <v>13000</v>
       </c>
       <c r="F17" s="3">
-        <v>12600</v>
+        <v>14100</v>
       </c>
       <c r="G17" s="3">
-        <v>13600</v>
+        <v>12300</v>
       </c>
       <c r="H17" s="3">
-        <v>12000</v>
+        <v>13300</v>
       </c>
       <c r="I17" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="J17" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K17" s="3">
         <v>10200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>9700</v>
       </c>
       <c r="L17" s="3">
         <v>9700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>8</v>
+      <c r="M17" s="3">
+        <v>9700</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>8</v>
@@ -1145,41 +1172,44 @@
       <c r="Q17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-23500</v>
       </c>
       <c r="E18" s="3">
-        <v>4100</v>
+        <v>1500</v>
       </c>
       <c r="F18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-4300</v>
-      </c>
       <c r="H18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1192,8 +1222,11 @@
       <c r="Q18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,40 +1244,41 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>1000</v>
       </c>
       <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>1600</v>
-      </c>
       <c r="G20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>8</v>
+      <c r="M20" s="3">
+        <v>200</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>8</v>
@@ -1258,8 +1292,11 @@
       <c r="Q20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E23" s="3">
         <v>2500</v>
       </c>
-      <c r="E23" s="3">
-        <v>4200</v>
-      </c>
       <c r="F23" s="3">
-        <v>1300</v>
+        <v>4100</v>
       </c>
       <c r="G23" s="3">
-        <v>-3800</v>
+        <v>1200</v>
       </c>
       <c r="H23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>3000</v>
       </c>
       <c r="Q23" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H24" s="3">
-        <v>600</v>
+        <v>-1100</v>
       </c>
       <c r="I24" s="3">
+        <v>500</v>
+      </c>
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-500</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-1600</v>
       </c>
       <c r="Q24" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,41 +1542,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-20300</v>
       </c>
       <c r="E26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F26" s="3">
         <v>2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1540,41 +1592,44 @@
       <c r="Q26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-20100</v>
       </c>
       <c r="E27" s="3">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="F27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1587,8 +1642,11 @@
       <c r="Q27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,40 +1842,43 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-1000</v>
       </c>
       <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1600</v>
-      </c>
       <c r="G32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>8</v>
+      <c r="M32" s="3">
+        <v>-200</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>8</v>
@@ -1822,41 +1892,44 @@
       <c r="Q32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-20100</v>
       </c>
       <c r="E33" s="3">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="F33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1869,8 +1942,11 @@
       <c r="Q33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,41 +1992,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-20100</v>
       </c>
       <c r="E35" s="3">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="F35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1963,60 +2042,66 @@
       <c r="Q35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,76 +2139,80 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>81000</v>
+        <v>56600</v>
       </c>
       <c r="E41" s="3">
-        <v>74100</v>
+        <v>79000</v>
       </c>
       <c r="F41" s="3">
-        <v>73900</v>
+        <v>72300</v>
       </c>
       <c r="G41" s="3">
-        <v>63100</v>
+        <v>72100</v>
       </c>
       <c r="H41" s="3">
-        <v>71300</v>
+        <v>61500</v>
       </c>
       <c r="I41" s="3">
-        <v>80500</v>
+        <v>69600</v>
       </c>
       <c r="J41" s="3">
+        <v>78500</v>
+      </c>
+      <c r="K41" s="3">
         <v>84000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>86600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>137300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>42100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25400</v>
+        <v>26800</v>
       </c>
       <c r="E42" s="3">
-        <v>30300</v>
+        <v>24800</v>
       </c>
       <c r="F42" s="3">
-        <v>29400</v>
+        <v>29500</v>
       </c>
       <c r="G42" s="3">
+        <v>28600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I42" s="3">
         <v>4700</v>
       </c>
-      <c r="H42" s="3">
-        <v>4800</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2138,8 +2228,8 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2147,55 +2237,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F43" s="3">
         <v>3900</v>
       </c>
-      <c r="E43" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3600</v>
       </c>
-      <c r="G43" s="3">
-        <v>3400</v>
-      </c>
       <c r="H43" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J43" s="3">
         <v>3500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8500</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2267,18 +2366,18 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2288,60 +2387,66 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>110300</v>
+        <v>86200</v>
       </c>
       <c r="E46" s="3">
-        <v>108300</v>
+        <v>107600</v>
       </c>
       <c r="F46" s="3">
-        <v>106900</v>
+        <v>105700</v>
       </c>
       <c r="G46" s="3">
-        <v>71100</v>
+        <v>104300</v>
       </c>
       <c r="H46" s="3">
-        <v>79500</v>
+        <v>69400</v>
       </c>
       <c r="I46" s="3">
-        <v>84000</v>
+        <v>77600</v>
       </c>
       <c r="J46" s="3">
+        <v>82000</v>
+      </c>
+      <c r="K46" s="3">
         <v>87600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>88300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>139800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>44900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>50600</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>14800</v>
       </c>
       <c r="E47" s="3">
         <v>200</v>
@@ -2350,31 +2455,31 @@
         <v>200</v>
       </c>
       <c r="G47" s="3">
-        <v>23400</v>
+        <v>200</v>
       </c>
       <c r="H47" s="3">
-        <v>23900</v>
+        <v>22800</v>
       </c>
       <c r="I47" s="3">
-        <v>23600</v>
+        <v>23300</v>
       </c>
       <c r="J47" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K47" s="3">
         <v>22400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>23500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -2382,81 +2487,87 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33100</v>
+        <v>29400</v>
       </c>
       <c r="E48" s="3">
-        <v>34300</v>
+        <v>32300</v>
       </c>
       <c r="F48" s="3">
-        <v>36100</v>
+        <v>33400</v>
       </c>
       <c r="G48" s="3">
-        <v>3900</v>
+        <v>35200</v>
       </c>
       <c r="H48" s="3">
-        <v>4400</v>
+        <v>3800</v>
       </c>
       <c r="I48" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="J48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K48" s="3">
         <v>4100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1500</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>26700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>26800</v>
+      </c>
+      <c r="G49" s="3">
+        <v>27000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>27100</v>
+      </c>
+      <c r="I49" s="3">
         <v>27300</v>
       </c>
-      <c r="E49" s="3">
-        <v>27500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>27600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>27800</v>
-      </c>
-      <c r="H49" s="3">
-        <v>28000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>22400</v>
-      </c>
       <c r="J49" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K49" s="3">
         <v>21600</v>
-      </c>
-      <c r="K49" s="3">
-        <v>100</v>
       </c>
       <c r="L49" s="3">
         <v>100</v>
@@ -2467,8 +2578,8 @@
       <c r="N49" s="3">
         <v>100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
+      <c r="O49" s="3">
+        <v>100</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="E52" s="3">
-        <v>8100</v>
+        <v>8600</v>
       </c>
       <c r="F52" s="3">
         <v>7900</v>
       </c>
       <c r="G52" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="H52" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I52" s="3">
         <v>2400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K52" s="3">
         <v>2300</v>
       </c>
-      <c r="J52" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>179700</v>
+        <v>145200</v>
       </c>
       <c r="E54" s="3">
-        <v>178300</v>
+        <v>175300</v>
       </c>
       <c r="F54" s="3">
-        <v>178700</v>
+        <v>174000</v>
       </c>
       <c r="G54" s="3">
-        <v>133700</v>
+        <v>174400</v>
       </c>
       <c r="H54" s="3">
-        <v>138300</v>
+        <v>130500</v>
       </c>
       <c r="I54" s="3">
-        <v>137000</v>
+        <v>134900</v>
       </c>
       <c r="J54" s="3">
+        <v>133600</v>
+      </c>
+      <c r="K54" s="3">
         <v>137900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>117600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>144700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>49100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>53500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,102 +2977,111 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>38600</v>
+        <v>29800</v>
       </c>
       <c r="E59" s="3">
-        <v>29000</v>
+        <v>37600</v>
       </c>
       <c r="F59" s="3">
-        <v>31800</v>
+        <v>28300</v>
       </c>
       <c r="G59" s="3">
+        <v>31000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>23000</v>
+      </c>
+      <c r="I59" s="3">
         <v>23600</v>
       </c>
-      <c r="H59" s="3">
-        <v>24100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>29000</v>
-      </c>
       <c r="J59" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K59" s="3">
         <v>37100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>25200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38600</v>
+        <v>29800</v>
       </c>
       <c r="E60" s="3">
-        <v>29000</v>
+        <v>37600</v>
       </c>
       <c r="F60" s="3">
-        <v>31800</v>
+        <v>28300</v>
       </c>
       <c r="G60" s="3">
+        <v>31000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>23000</v>
+      </c>
+      <c r="I60" s="3">
         <v>23600</v>
       </c>
-      <c r="H60" s="3">
-        <v>24100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>29000</v>
-      </c>
       <c r="J60" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K60" s="3">
         <v>37100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>25200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,34 +3127,37 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24200</v>
+        <v>20900</v>
       </c>
       <c r="E62" s="3">
-        <v>31800</v>
+        <v>23600</v>
       </c>
       <c r="F62" s="3">
-        <v>34500</v>
+        <v>31000</v>
       </c>
       <c r="G62" s="3">
+        <v>33600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I62" s="3">
         <v>1600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1300</v>
       </c>
       <c r="J62" s="3">
         <v>1300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>1300</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
@@ -3019,11 +3165,11 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>62800</v>
+        <v>50800</v>
       </c>
       <c r="E66" s="3">
-        <v>60800</v>
+        <v>61200</v>
       </c>
       <c r="F66" s="3">
-        <v>66200</v>
+        <v>59300</v>
       </c>
       <c r="G66" s="3">
-        <v>31500</v>
+        <v>64600</v>
       </c>
       <c r="H66" s="3">
-        <v>32200</v>
+        <v>30700</v>
       </c>
       <c r="I66" s="3">
-        <v>33700</v>
+        <v>31400</v>
       </c>
       <c r="J66" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K66" s="3">
         <v>41600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3365,13 +3533,13 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>24300</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>24300</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,8 +3597,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3440,41 +3614,44 @@
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3">
         <v>-100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1100</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
       <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
         <v>4100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>116900</v>
+        <v>94500</v>
       </c>
       <c r="E76" s="3">
-        <v>117500</v>
+        <v>114100</v>
       </c>
       <c r="F76" s="3">
-        <v>112500</v>
+        <v>114600</v>
       </c>
       <c r="G76" s="3">
-        <v>102300</v>
+        <v>109700</v>
       </c>
       <c r="H76" s="3">
-        <v>106100</v>
+        <v>99700</v>
       </c>
       <c r="I76" s="3">
-        <v>103200</v>
+        <v>103500</v>
       </c>
       <c r="J76" s="3">
+        <v>100700</v>
+      </c>
+      <c r="K76" s="3">
         <v>96300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>96700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>114000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2800</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,93 +3897,99 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-20100</v>
       </c>
       <c r="E81" s="3">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="F81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>8</v>
       </c>
@@ -3807,8 +4002,11 @@
       <c r="Q81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>FEDU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F8" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>18700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>12400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K8" s="3">
+        <v>13100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>12400</v>
+      </c>
+      <c r="M8" s="3">
         <v>10000</v>
       </c>
-      <c r="E8" s="3">
-        <v>14500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>18000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>12000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>9100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>12800</v>
-      </c>
-      <c r="J8" s="3">
-        <v>13100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>12400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6500</v>
+        <v>5300</v>
       </c>
       <c r="E9" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="F9" s="3">
-        <v>8100</v>
+        <v>7300</v>
       </c>
       <c r="G9" s="3">
-        <v>6500</v>
+        <v>8400</v>
       </c>
       <c r="H9" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="I9" s="3">
-        <v>6000</v>
+        <v>6700</v>
       </c>
       <c r="J9" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K9" s="3">
         <v>6200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>3400</v>
       </c>
       <c r="R9" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="E10" s="3">
-        <v>7400</v>
+        <v>3600</v>
       </c>
       <c r="F10" s="3">
-        <v>9900</v>
+        <v>7700</v>
       </c>
       <c r="G10" s="3">
-        <v>5500</v>
+        <v>10300</v>
       </c>
       <c r="H10" s="3">
-        <v>2600</v>
+        <v>5700</v>
       </c>
       <c r="I10" s="3">
-        <v>6700</v>
+        <v>2700</v>
       </c>
       <c r="J10" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K10" s="3">
         <v>6800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,16 +1025,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>20400</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>21100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1034,8 +1054,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1050,16 +1070,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,43 +1151,44 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33500</v>
+        <v>10300</v>
       </c>
       <c r="E17" s="3">
-        <v>13000</v>
+        <v>34700</v>
       </c>
       <c r="F17" s="3">
-        <v>14100</v>
+        <v>13500</v>
       </c>
       <c r="G17" s="3">
-        <v>12300</v>
+        <v>14600</v>
       </c>
       <c r="H17" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="I17" s="3">
-        <v>11700</v>
+        <v>13800</v>
       </c>
       <c r="J17" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K17" s="3">
         <v>11900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>9700</v>
       </c>
       <c r="M17" s="3">
         <v>9700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>8</v>
+      <c r="N17" s="3">
+        <v>9700</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>8</v>
@@ -1175,44 +1202,47 @@
       <c r="R17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-23500</v>
+        <v>-1800</v>
       </c>
       <c r="E18" s="3">
-        <v>1500</v>
+        <v>-24400</v>
       </c>
       <c r="F18" s="3">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="G18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>-4200</v>
-      </c>
       <c r="I18" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J18" s="3">
         <v>1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,43 +1278,44 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
-        <v>900</v>
-      </c>
       <c r="F20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>1500</v>
-      </c>
       <c r="H20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
+      <c r="N20" s="3">
+        <v>200</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>8</v>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-22500</v>
+        <v>-1600</v>
       </c>
       <c r="E23" s="3">
-        <v>2500</v>
+        <v>-23400</v>
       </c>
       <c r="F23" s="3">
-        <v>4100</v>
+        <v>2600</v>
       </c>
       <c r="G23" s="3">
-        <v>1200</v>
+        <v>4300</v>
       </c>
       <c r="H23" s="3">
-        <v>-3700</v>
+        <v>1300</v>
       </c>
       <c r="I23" s="3">
-        <v>900</v>
+        <v>-3900</v>
       </c>
       <c r="J23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>3000</v>
       </c>
       <c r="R23" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2200</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>500</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-1600</v>
       </c>
       <c r="R24" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,44 +1594,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-20300</v>
+        <v>-1500</v>
       </c>
       <c r="E26" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>400</v>
+      </c>
+      <c r="K26" s="3">
+        <v>900</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>400</v>
+      </c>
+      <c r="N26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1595,44 +1647,47 @@
       <c r="R26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-20100</v>
+        <v>-1600</v>
       </c>
       <c r="E27" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
-        <v>2700</v>
-      </c>
       <c r="G27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
-        <v>-2500</v>
-      </c>
       <c r="I27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,43 +1912,46 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-900</v>
-      </c>
       <c r="F32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1500</v>
-      </c>
       <c r="H32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
+      <c r="N32" s="3">
+        <v>-200</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>8</v>
@@ -1895,44 +1965,47 @@
       <c r="R32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-20100</v>
+        <v>-1600</v>
       </c>
       <c r="E33" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
-        <v>2700</v>
-      </c>
       <c r="G33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
-        <v>-2500</v>
-      </c>
       <c r="I33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1600</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,44 +2071,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-20100</v>
+        <v>-1600</v>
       </c>
       <c r="E35" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
-        <v>2700</v>
-      </c>
       <c r="G35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
-        <v>-2500</v>
-      </c>
       <c r="I35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1600</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,81 +2226,85 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>56600</v>
+        <v>62500</v>
       </c>
       <c r="E41" s="3">
-        <v>79000</v>
+        <v>58800</v>
       </c>
       <c r="F41" s="3">
-        <v>72300</v>
+        <v>82000</v>
       </c>
       <c r="G41" s="3">
-        <v>72100</v>
+        <v>75000</v>
       </c>
       <c r="H41" s="3">
-        <v>61500</v>
+        <v>74800</v>
       </c>
       <c r="I41" s="3">
-        <v>69600</v>
+        <v>63800</v>
       </c>
       <c r="J41" s="3">
+        <v>72200</v>
+      </c>
+      <c r="K41" s="3">
         <v>78500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>84000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>86600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>137300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>42100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>26800</v>
+        <v>1500</v>
       </c>
       <c r="E42" s="3">
-        <v>24800</v>
+        <v>27900</v>
       </c>
       <c r="F42" s="3">
-        <v>29500</v>
+        <v>25700</v>
       </c>
       <c r="G42" s="3">
-        <v>28600</v>
+        <v>30600</v>
       </c>
       <c r="H42" s="3">
-        <v>4600</v>
+        <v>29700</v>
       </c>
       <c r="I42" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
+        <v>4800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4900</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2231,8 +2321,8 @@
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="E43" s="3">
-        <v>3800</v>
+        <v>2900</v>
       </c>
       <c r="F43" s="3">
         <v>3900</v>
       </c>
       <c r="G43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L43" s="3">
         <v>3600</v>
       </c>
-      <c r="H43" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>3600</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8500</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2369,18 +2468,18 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2390,66 +2489,72 @@
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>86200</v>
+        <v>66600</v>
       </c>
       <c r="E46" s="3">
-        <v>107600</v>
+        <v>89500</v>
       </c>
       <c r="F46" s="3">
-        <v>105700</v>
+        <v>111600</v>
       </c>
       <c r="G46" s="3">
-        <v>104300</v>
+        <v>109600</v>
       </c>
       <c r="H46" s="3">
-        <v>69400</v>
+        <v>108200</v>
       </c>
       <c r="I46" s="3">
-        <v>77600</v>
+        <v>72000</v>
       </c>
       <c r="J46" s="3">
+        <v>80500</v>
+      </c>
+      <c r="K46" s="3">
         <v>82000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>87600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>88300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>139800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>44900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>50600</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14800</v>
+        <v>47000</v>
       </c>
       <c r="E47" s="3">
-        <v>200</v>
+        <v>15400</v>
       </c>
       <c r="F47" s="3">
         <v>200</v>
@@ -2458,31 +2563,31 @@
         <v>200</v>
       </c>
       <c r="H47" s="3">
-        <v>22800</v>
+        <v>200</v>
       </c>
       <c r="I47" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="J47" s="3">
+        <v>24200</v>
+      </c>
+      <c r="K47" s="3">
         <v>23000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>22400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>23500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
@@ -2490,87 +2595,93 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29400</v>
+        <v>30000</v>
       </c>
       <c r="E48" s="3">
-        <v>32300</v>
+        <v>30500</v>
       </c>
       <c r="F48" s="3">
-        <v>33400</v>
+        <v>33500</v>
       </c>
       <c r="G48" s="3">
-        <v>35200</v>
+        <v>34700</v>
       </c>
       <c r="H48" s="3">
-        <v>3800</v>
+        <v>36500</v>
       </c>
       <c r="I48" s="3">
-        <v>4300</v>
+        <v>3900</v>
       </c>
       <c r="J48" s="3">
         <v>4500</v>
       </c>
       <c r="K48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L48" s="3">
         <v>4100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1500</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6100</v>
+        <v>6600</v>
       </c>
       <c r="E49" s="3">
-        <v>26700</v>
+        <v>6400</v>
       </c>
       <c r="F49" s="3">
-        <v>26800</v>
+        <v>27700</v>
       </c>
       <c r="G49" s="3">
-        <v>27000</v>
+        <v>27800</v>
       </c>
       <c r="H49" s="3">
-        <v>27100</v>
+        <v>28000</v>
       </c>
       <c r="I49" s="3">
-        <v>27300</v>
+        <v>28100</v>
       </c>
       <c r="J49" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K49" s="3">
         <v>21800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>21600</v>
-      </c>
-      <c r="L49" s="3">
-        <v>100</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
@@ -2581,8 +2692,8 @@
       <c r="O49" s="3">
         <v>100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
+      <c r="P49" s="3">
+        <v>100</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8700</v>
+        <v>5500</v>
       </c>
       <c r="E52" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="F52" s="3">
-        <v>7900</v>
+        <v>8900</v>
       </c>
       <c r="G52" s="3">
-        <v>7700</v>
+        <v>8200</v>
       </c>
       <c r="H52" s="3">
-        <v>7300</v>
+        <v>8000</v>
       </c>
       <c r="I52" s="3">
-        <v>2400</v>
+        <v>7600</v>
       </c>
       <c r="J52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K52" s="3">
         <v>2200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>145200</v>
+        <v>155700</v>
       </c>
       <c r="E54" s="3">
-        <v>175300</v>
+        <v>150700</v>
       </c>
       <c r="F54" s="3">
-        <v>174000</v>
+        <v>181900</v>
       </c>
       <c r="G54" s="3">
-        <v>174400</v>
+        <v>180500</v>
       </c>
       <c r="H54" s="3">
-        <v>130500</v>
+        <v>180900</v>
       </c>
       <c r="I54" s="3">
-        <v>134900</v>
+        <v>135400</v>
       </c>
       <c r="J54" s="3">
+        <v>140000</v>
+      </c>
+      <c r="K54" s="3">
         <v>133600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>137900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>117600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>144700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>49100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>53500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,31 +3061,34 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2980,108 +3114,117 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>29800</v>
+        <v>35500</v>
       </c>
       <c r="E59" s="3">
-        <v>37600</v>
+        <v>30700</v>
       </c>
       <c r="F59" s="3">
+        <v>38800</v>
+      </c>
+      <c r="G59" s="3">
+        <v>28700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>31300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>22300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K59" s="3">
         <v>28300</v>
       </c>
-      <c r="G59" s="3">
-        <v>31000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>23000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>23600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>28300</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>37100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>29700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>25200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29800</v>
+        <v>35600</v>
       </c>
       <c r="E60" s="3">
-        <v>37600</v>
+        <v>30900</v>
       </c>
       <c r="F60" s="3">
+        <v>39100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>29400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>32200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>23800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K60" s="3">
         <v>28300</v>
       </c>
-      <c r="G60" s="3">
-        <v>31000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>23000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>23600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>28300</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>37100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>25200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,37 +3273,40 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="E62" s="3">
-        <v>23600</v>
+        <v>21700</v>
       </c>
       <c r="F62" s="3">
-        <v>31000</v>
+        <v>24500</v>
       </c>
       <c r="G62" s="3">
-        <v>33600</v>
+        <v>32200</v>
       </c>
       <c r="H62" s="3">
-        <v>1500</v>
+        <v>34900</v>
       </c>
       <c r="I62" s="3">
         <v>1600</v>
       </c>
       <c r="J62" s="3">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="K62" s="3">
         <v>1300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="L62" s="3">
+        <v>1300</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
@@ -3168,11 +3314,11 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50800</v>
+        <v>56900</v>
       </c>
       <c r="E66" s="3">
-        <v>61200</v>
+        <v>59100</v>
       </c>
       <c r="F66" s="3">
-        <v>59300</v>
+        <v>63500</v>
       </c>
       <c r="G66" s="3">
-        <v>64600</v>
+        <v>61600</v>
       </c>
       <c r="H66" s="3">
+        <v>67100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>31900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K66" s="3">
+        <v>32900</v>
+      </c>
+      <c r="L66" s="3">
+        <v>41600</v>
+      </c>
+      <c r="M66" s="3">
+        <v>20900</v>
+      </c>
+      <c r="N66" s="3">
         <v>30700</v>
       </c>
-      <c r="I66" s="3">
-        <v>31400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>32900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>41600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>20900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>30700</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3536,13 +3704,13 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>24300</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>24300</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,16 +3771,19 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
+      <c r="E72" s="3">
+        <v>-16000</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
@@ -3617,41 +3791,44 @@
       <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3">
         <v>-100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K72" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L72" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O72" s="3">
         <v>2400</v>
       </c>
-      <c r="J72" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3">
-        <v>4100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>2400</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-100</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>94500</v>
+        <v>98800</v>
       </c>
       <c r="E76" s="3">
-        <v>114100</v>
+        <v>91600</v>
       </c>
       <c r="F76" s="3">
-        <v>114600</v>
+        <v>118400</v>
       </c>
       <c r="G76" s="3">
-        <v>109700</v>
+        <v>118900</v>
       </c>
       <c r="H76" s="3">
-        <v>99700</v>
+        <v>113900</v>
       </c>
       <c r="I76" s="3">
         <v>103500</v>
       </c>
       <c r="J76" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K76" s="3">
         <v>100700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>96300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>96700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>114000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2800</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,99 +4089,105 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-20100</v>
+        <v>-1600</v>
       </c>
       <c r="E81" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
-        <v>2700</v>
-      </c>
       <c r="G81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
-        <v>-2500</v>
-      </c>
       <c r="I81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1600</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>8</v>
       </c>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>FEDU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G8" s="3">
+        <v>15700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>19600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K8" s="3">
+        <v>13200</v>
+      </c>
+      <c r="L8" s="3">
+        <v>13100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>12400</v>
+      </c>
+      <c r="N8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O8" s="3">
+        <v>12900</v>
+      </c>
+      <c r="P8" s="3">
+        <v>11500</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>10200</v>
+      </c>
+      <c r="R8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="S8" s="3">
+        <v>8700</v>
+      </c>
+      <c r="T8" s="3">
         <v>8500</v>
       </c>
-      <c r="E8" s="3">
-        <v>10300</v>
-      </c>
-      <c r="F8" s="3">
-        <v>15000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>18700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>12400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>9400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>13200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>13100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>12400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N8" s="3">
-        <v>12900</v>
-      </c>
-      <c r="O8" s="3">
-        <v>11500</v>
-      </c>
-      <c r="P8" s="3">
-        <v>10200</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>7000</v>
-      </c>
-      <c r="R8" s="3">
-        <v>8700</v>
-      </c>
-      <c r="S8" s="3">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5300</v>
+        <v>7300</v>
       </c>
       <c r="E9" s="3">
-        <v>6700</v>
+        <v>5500</v>
       </c>
       <c r="F9" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="G9" s="3">
-        <v>8400</v>
+        <v>7700</v>
       </c>
       <c r="H9" s="3">
-        <v>6700</v>
+        <v>8800</v>
       </c>
       <c r="I9" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="J9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K9" s="3">
         <v>6300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3000</v>
-      </c>
-      <c r="R9" s="3">
-        <v>3400</v>
       </c>
       <c r="S9" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3300</v>
+        <v>5400</v>
       </c>
       <c r="E10" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="F10" s="3">
-        <v>7700</v>
+        <v>3800</v>
       </c>
       <c r="G10" s="3">
-        <v>10300</v>
+        <v>8100</v>
       </c>
       <c r="H10" s="3">
-        <v>5700</v>
+        <v>10800</v>
       </c>
       <c r="I10" s="3">
-        <v>2700</v>
+        <v>6000</v>
       </c>
       <c r="J10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K10" s="3">
         <v>7000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,19 +1045,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>21100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>22100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1057,8 +1077,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1073,16 +1093,19 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,46 +1178,47 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10300</v>
+        <v>13200</v>
       </c>
       <c r="E17" s="3">
-        <v>34700</v>
+        <v>10800</v>
       </c>
       <c r="F17" s="3">
-        <v>13500</v>
+        <v>36400</v>
       </c>
       <c r="G17" s="3">
-        <v>14600</v>
+        <v>14100</v>
       </c>
       <c r="H17" s="3">
-        <v>12700</v>
+        <v>15300</v>
       </c>
       <c r="I17" s="3">
-        <v>13800</v>
+        <v>13300</v>
       </c>
       <c r="J17" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K17" s="3">
         <v>12100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>9700</v>
       </c>
       <c r="N17" s="3">
         <v>9700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>8</v>
+      <c r="O17" s="3">
+        <v>9700</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>8</v>
@@ -1205,47 +1232,50 @@
       <c r="S17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1800</v>
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
-        <v>-24400</v>
+        <v>-1900</v>
       </c>
       <c r="F18" s="3">
-        <v>1600</v>
+        <v>-25600</v>
       </c>
       <c r="G18" s="3">
-        <v>4100</v>
+        <v>1700</v>
       </c>
       <c r="H18" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>-4400</v>
-      </c>
       <c r="J18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,46 +1312,47 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1600</v>
-      </c>
       <c r="I20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>8</v>
+      <c r="O20" s="3">
+        <v>200</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>8</v>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
-        <v>-23400</v>
-      </c>
       <c r="F23" s="3">
-        <v>2600</v>
+        <v>-24500</v>
       </c>
       <c r="G23" s="3">
-        <v>4300</v>
+        <v>2700</v>
       </c>
       <c r="H23" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
-        <v>-3900</v>
-      </c>
       <c r="J23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1000</v>
-      </c>
-      <c r="R23" s="3">
-        <v>3000</v>
       </c>
       <c r="S23" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>-2300</v>
-      </c>
       <c r="F24" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>600</v>
+      </c>
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>900</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-500</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-1600</v>
       </c>
       <c r="S24" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,47 +1646,50 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1500</v>
+        <v>600</v>
       </c>
       <c r="E26" s="3">
-        <v>-21100</v>
+        <v>-1600</v>
       </c>
       <c r="F26" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="G26" s="3">
-        <v>3000</v>
-      </c>
       <c r="H26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
-        <v>-2700</v>
-      </c>
       <c r="J26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1650,47 +1702,50 @@
       <c r="S26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
-        <v>-20900</v>
-      </c>
       <c r="F27" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K27" s="3">
+        <v>400</v>
+      </c>
+      <c r="L27" s="3">
+        <v>900</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,46 +1982,49 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1600</v>
-      </c>
       <c r="I32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>8</v>
+      <c r="O32" s="3">
+        <v>-200</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>8</v>
@@ -1968,47 +2038,50 @@
       <c r="S32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
-        <v>-20900</v>
-      </c>
       <c r="F33" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K33" s="3">
+        <v>400</v>
+      </c>
+      <c r="L33" s="3">
+        <v>900</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>900</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,47 +2150,50 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
-        <v>-20900</v>
-      </c>
       <c r="F35" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K35" s="3">
+        <v>400</v>
+      </c>
+      <c r="L35" s="3">
+        <v>900</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>900</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,88 +2313,92 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>62500</v>
+        <v>64300</v>
       </c>
       <c r="E41" s="3">
-        <v>58800</v>
+        <v>65500</v>
       </c>
       <c r="F41" s="3">
-        <v>82000</v>
+        <v>61600</v>
       </c>
       <c r="G41" s="3">
-        <v>75000</v>
+        <v>85900</v>
       </c>
       <c r="H41" s="3">
-        <v>74800</v>
+        <v>78500</v>
       </c>
       <c r="I41" s="3">
-        <v>63800</v>
+        <v>78400</v>
       </c>
       <c r="J41" s="3">
+        <v>66900</v>
+      </c>
+      <c r="K41" s="3">
         <v>72200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>78500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>84000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>86600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>137300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>43700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>42100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E42" s="3">
         <v>1500</v>
       </c>
-      <c r="E42" s="3">
-        <v>27900</v>
-      </c>
       <c r="F42" s="3">
-        <v>25700</v>
+        <v>29200</v>
       </c>
       <c r="G42" s="3">
-        <v>30600</v>
+        <v>26900</v>
       </c>
       <c r="H42" s="3">
-        <v>29700</v>
+        <v>32100</v>
       </c>
       <c r="I42" s="3">
-        <v>4800</v>
+        <v>31100</v>
       </c>
       <c r="J42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K42" s="3">
         <v>4900</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2324,8 +2414,8 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2333,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E43" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I43" s="3">
         <v>3900</v>
       </c>
-      <c r="G43" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K43" s="3">
         <v>3400</v>
       </c>
-      <c r="J43" s="3">
-        <v>3400</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8500</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2471,18 +2570,18 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2492,72 +2591,78 @@
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>66600</v>
+        <v>72100</v>
       </c>
       <c r="E46" s="3">
-        <v>89500</v>
+        <v>69800</v>
       </c>
       <c r="F46" s="3">
-        <v>111600</v>
+        <v>93700</v>
       </c>
       <c r="G46" s="3">
-        <v>109600</v>
+        <v>116900</v>
       </c>
       <c r="H46" s="3">
-        <v>108200</v>
+        <v>114800</v>
       </c>
       <c r="I46" s="3">
-        <v>72000</v>
+        <v>113400</v>
       </c>
       <c r="J46" s="3">
+        <v>75400</v>
+      </c>
+      <c r="K46" s="3">
         <v>80500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>82000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>87600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>88300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>139800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>44900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>50600</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>47000</v>
+        <v>43100</v>
       </c>
       <c r="E47" s="3">
-        <v>15400</v>
+        <v>49300</v>
       </c>
       <c r="F47" s="3">
-        <v>200</v>
+        <v>16100</v>
       </c>
       <c r="G47" s="3">
         <v>200</v>
@@ -2566,31 +2671,31 @@
         <v>200</v>
       </c>
       <c r="I47" s="3">
-        <v>23700</v>
+        <v>200</v>
       </c>
       <c r="J47" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K47" s="3">
         <v>24200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>23000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>22400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>23500</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
@@ -2598,93 +2703,99 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30000</v>
+        <v>32200</v>
       </c>
       <c r="E48" s="3">
-        <v>30500</v>
+        <v>31400</v>
       </c>
       <c r="F48" s="3">
-        <v>33500</v>
+        <v>31900</v>
       </c>
       <c r="G48" s="3">
-        <v>34700</v>
+        <v>35100</v>
       </c>
       <c r="H48" s="3">
-        <v>36500</v>
+        <v>36300</v>
       </c>
       <c r="I48" s="3">
-        <v>3900</v>
+        <v>38300</v>
       </c>
       <c r="J48" s="3">
-        <v>4500</v>
+        <v>4100</v>
       </c>
       <c r="K48" s="3">
         <v>4500</v>
       </c>
       <c r="L48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M48" s="3">
         <v>4100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1500</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="E49" s="3">
-        <v>6400</v>
+        <v>6900</v>
       </c>
       <c r="F49" s="3">
-        <v>27700</v>
+        <v>6700</v>
       </c>
       <c r="G49" s="3">
-        <v>27800</v>
+        <v>29000</v>
       </c>
       <c r="H49" s="3">
-        <v>28000</v>
+        <v>29100</v>
       </c>
       <c r="I49" s="3">
-        <v>28100</v>
+        <v>29300</v>
       </c>
       <c r="J49" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K49" s="3">
         <v>28400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>21800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>21600</v>
-      </c>
-      <c r="M49" s="3">
-        <v>100</v>
       </c>
       <c r="N49" s="3">
         <v>100</v>
@@ -2695,8 +2806,8 @@
       <c r="P49" s="3">
         <v>100</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
+      <c r="Q49" s="3">
+        <v>100</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5500</v>
+        <v>6300</v>
       </c>
       <c r="E52" s="3">
-        <v>9000</v>
+        <v>5800</v>
       </c>
       <c r="F52" s="3">
-        <v>8900</v>
+        <v>9400</v>
       </c>
       <c r="G52" s="3">
-        <v>8200</v>
+        <v>9300</v>
       </c>
       <c r="H52" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J52" s="3">
         <v>8000</v>
       </c>
-      <c r="I52" s="3">
-        <v>7600</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>155700</v>
+        <v>160500</v>
       </c>
       <c r="E54" s="3">
-        <v>150700</v>
+        <v>163100</v>
       </c>
       <c r="F54" s="3">
-        <v>181900</v>
+        <v>157800</v>
       </c>
       <c r="G54" s="3">
-        <v>180500</v>
+        <v>190500</v>
       </c>
       <c r="H54" s="3">
-        <v>180900</v>
+        <v>189100</v>
       </c>
       <c r="I54" s="3">
-        <v>135400</v>
+        <v>189500</v>
       </c>
       <c r="J54" s="3">
+        <v>141800</v>
+      </c>
+      <c r="K54" s="3">
         <v>140000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>133600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>137900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>117600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>144700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>49100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>53500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,35 +3195,38 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
       </c>
       <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -3117,114 +3251,123 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>35500</v>
+        <v>34900</v>
       </c>
       <c r="E59" s="3">
-        <v>30700</v>
+        <v>37100</v>
       </c>
       <c r="F59" s="3">
-        <v>38800</v>
+        <v>32200</v>
       </c>
       <c r="G59" s="3">
-        <v>28700</v>
+        <v>40600</v>
       </c>
       <c r="H59" s="3">
-        <v>31300</v>
+        <v>30100</v>
       </c>
       <c r="I59" s="3">
-        <v>22300</v>
+        <v>32800</v>
       </c>
       <c r="J59" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K59" s="3">
         <v>22200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>37100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>29700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>25200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35600</v>
+        <v>35200</v>
       </c>
       <c r="E60" s="3">
-        <v>30900</v>
+        <v>37300</v>
       </c>
       <c r="F60" s="3">
-        <v>39100</v>
+        <v>32400</v>
       </c>
       <c r="G60" s="3">
-        <v>29400</v>
+        <v>40900</v>
       </c>
       <c r="H60" s="3">
-        <v>32200</v>
+        <v>30800</v>
       </c>
       <c r="I60" s="3">
-        <v>23800</v>
+        <v>33700</v>
       </c>
       <c r="J60" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K60" s="3">
         <v>24400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>28300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>37100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>25200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,40 +3419,43 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21300</v>
+        <v>21000</v>
       </c>
       <c r="E62" s="3">
-        <v>21700</v>
+        <v>22300</v>
       </c>
       <c r="F62" s="3">
-        <v>24500</v>
+        <v>22800</v>
       </c>
       <c r="G62" s="3">
-        <v>32200</v>
+        <v>25600</v>
       </c>
       <c r="H62" s="3">
-        <v>34900</v>
+        <v>33700</v>
       </c>
       <c r="I62" s="3">
+        <v>36500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1300</v>
       </c>
       <c r="L62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="M62" s="3">
+        <v>1300</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -3317,11 +3463,11 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>56900</v>
+        <v>56200</v>
       </c>
       <c r="E66" s="3">
-        <v>59100</v>
+        <v>59600</v>
       </c>
       <c r="F66" s="3">
-        <v>63500</v>
+        <v>61900</v>
       </c>
       <c r="G66" s="3">
-        <v>61600</v>
+        <v>66500</v>
       </c>
       <c r="H66" s="3">
-        <v>67100</v>
+        <v>64500</v>
       </c>
       <c r="I66" s="3">
-        <v>31900</v>
+        <v>70200</v>
       </c>
       <c r="J66" s="3">
+        <v>33400</v>
+      </c>
+      <c r="K66" s="3">
         <v>32600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3707,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>24300</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>24300</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,19 +3945,22 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-16700</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
@@ -3794,41 +3968,44 @@
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3">
         <v>-100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1100</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
       <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
         <v>4100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>98800</v>
+        <v>104200</v>
       </c>
       <c r="E76" s="3">
-        <v>91600</v>
+        <v>103500</v>
       </c>
       <c r="F76" s="3">
-        <v>118400</v>
+        <v>95900</v>
       </c>
       <c r="G76" s="3">
-        <v>118900</v>
+        <v>124000</v>
       </c>
       <c r="H76" s="3">
-        <v>113900</v>
+        <v>124600</v>
       </c>
       <c r="I76" s="3">
-        <v>103500</v>
+        <v>119300</v>
       </c>
       <c r="J76" s="3">
+        <v>108400</v>
+      </c>
+      <c r="K76" s="3">
         <v>107400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>100700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>96300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>96700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>114000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2800</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,105 +4281,111 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
-        <v>-20900</v>
-      </c>
       <c r="F81" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K81" s="3">
+        <v>400</v>
+      </c>
+      <c r="L81" s="3">
+        <v>900</v>
+      </c>
+      <c r="M81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>900</v>
-      </c>
-      <c r="L81" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>8</v>
       </c>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>FEDU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12700</v>
+        <v>10300</v>
       </c>
       <c r="E8" s="3">
-        <v>8900</v>
+        <v>12800</v>
       </c>
       <c r="F8" s="3">
-        <v>10800</v>
+        <v>9000</v>
       </c>
       <c r="G8" s="3">
-        <v>15700</v>
+        <v>10900</v>
       </c>
       <c r="H8" s="3">
-        <v>19600</v>
+        <v>15800</v>
       </c>
       <c r="I8" s="3">
-        <v>13000</v>
+        <v>19700</v>
       </c>
       <c r="J8" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K8" s="3">
         <v>9800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7300</v>
+        <v>6500</v>
       </c>
       <c r="E9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F9" s="3">
         <v>5500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K9" s="3">
         <v>7000</v>
       </c>
-      <c r="G9" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H9" s="3">
-        <v>8800</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>7000</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3000</v>
-      </c>
-      <c r="S9" s="3">
-        <v>3400</v>
       </c>
       <c r="T9" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E10" s="3">
         <v>5400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,11 +1078,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>22100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>22200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1080,8 +1099,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1096,16 +1115,19 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,49 +1204,50 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E17" s="3">
         <v>13200</v>
       </c>
-      <c r="E17" s="3">
-        <v>10800</v>
-      </c>
       <c r="F17" s="3">
-        <v>36400</v>
+        <v>10900</v>
       </c>
       <c r="G17" s="3">
-        <v>14100</v>
+        <v>36500</v>
       </c>
       <c r="H17" s="3">
-        <v>15300</v>
+        <v>14200</v>
       </c>
       <c r="I17" s="3">
-        <v>13300</v>
+        <v>15400</v>
       </c>
       <c r="J17" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K17" s="3">
         <v>14400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>9700</v>
       </c>
       <c r="O17" s="3">
         <v>9700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>8</v>
+      <c r="P17" s="3">
+        <v>9700</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>8</v>
@@ -1235,50 +1261,53 @@
       <c r="T17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
-        <v>-25600</v>
-      </c>
       <c r="G18" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="H18" s="3">
         <v>1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1291,8 +1320,11 @@
       <c r="T18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,49 +1345,50 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>8</v>
+      <c r="P20" s="3">
+        <v>200</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>8</v>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
-        <v>-24500</v>
-      </c>
       <c r="G23" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="H23" s="3">
         <v>2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1000</v>
-      </c>
-      <c r="S23" s="3">
-        <v>3000</v>
       </c>
       <c r="T23" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-500</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-1600</v>
       </c>
       <c r="T24" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,50 +1697,53 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-22100</v>
-      </c>
       <c r="G26" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="H26" s="3">
         <v>1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1705,50 +1756,53 @@
       <c r="T26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-21900</v>
-      </c>
       <c r="G27" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="H27" s="3">
         <v>1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1761,8 +1815,11 @@
       <c r="T27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,49 +2051,52 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>8</v>
+      <c r="P32" s="3">
+        <v>-200</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>8</v>
@@ -2041,50 +2110,53 @@
       <c r="T32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
-        <v>-21900</v>
-      </c>
       <c r="G33" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="H33" s="3">
         <v>1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2097,8 +2169,11 @@
       <c r="T33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,50 +2228,53 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
-        <v>-21900</v>
-      </c>
       <c r="G35" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="H35" s="3">
         <v>1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2209,69 +2287,75 @@
       <c r="T35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,94 +2399,98 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>64300</v>
+        <v>67100</v>
       </c>
       <c r="E41" s="3">
-        <v>65500</v>
+        <v>64600</v>
       </c>
       <c r="F41" s="3">
-        <v>61600</v>
+        <v>65700</v>
       </c>
       <c r="G41" s="3">
-        <v>85900</v>
+        <v>61800</v>
       </c>
       <c r="H41" s="3">
+        <v>86300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>78900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>78700</v>
+      </c>
+      <c r="K41" s="3">
+        <v>66900</v>
+      </c>
+      <c r="L41" s="3">
+        <v>72200</v>
+      </c>
+      <c r="M41" s="3">
         <v>78500</v>
       </c>
-      <c r="I41" s="3">
-        <v>78400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>66900</v>
-      </c>
-      <c r="K41" s="3">
-        <v>72200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>78500</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>84000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>86600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>137300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>43700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>42100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E42" s="3">
         <v>5200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1500</v>
       </c>
-      <c r="F42" s="3">
-        <v>29200</v>
-      </c>
       <c r="G42" s="3">
-        <v>26900</v>
+        <v>29300</v>
       </c>
       <c r="H42" s="3">
-        <v>32100</v>
+        <v>27000</v>
       </c>
       <c r="I42" s="3">
-        <v>31100</v>
+        <v>32200</v>
       </c>
       <c r="J42" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K42" s="3">
         <v>5000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4900</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2417,8 +2506,8 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2426,64 +2515,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="E43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F43" s="3">
         <v>2800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8500</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2573,18 +2671,18 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2594,78 +2692,84 @@
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>72100</v>
+        <v>74100</v>
       </c>
       <c r="E46" s="3">
-        <v>69800</v>
+        <v>72400</v>
       </c>
       <c r="F46" s="3">
-        <v>93700</v>
+        <v>70100</v>
       </c>
       <c r="G46" s="3">
-        <v>116900</v>
+        <v>94100</v>
       </c>
       <c r="H46" s="3">
-        <v>114800</v>
+        <v>117400</v>
       </c>
       <c r="I46" s="3">
-        <v>113400</v>
+        <v>115300</v>
       </c>
       <c r="J46" s="3">
+        <v>113900</v>
+      </c>
+      <c r="K46" s="3">
         <v>75400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>80500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>82000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>87600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>88300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>139800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>44900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>50600</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>43100</v>
+        <v>41900</v>
       </c>
       <c r="E47" s="3">
-        <v>49300</v>
+        <v>43300</v>
       </c>
       <c r="F47" s="3">
-        <v>16100</v>
+        <v>49500</v>
       </c>
       <c r="G47" s="3">
-        <v>200</v>
+        <v>16200</v>
       </c>
       <c r="H47" s="3">
         <v>200</v>
@@ -2674,31 +2778,31 @@
         <v>200</v>
       </c>
       <c r="J47" s="3">
+        <v>200</v>
+      </c>
+      <c r="K47" s="3">
         <v>24800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>24200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>23000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>22400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>23500</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
@@ -2706,64 +2810,70 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32200</v>
+        <v>31000</v>
       </c>
       <c r="E48" s="3">
-        <v>31400</v>
+        <v>32400</v>
       </c>
       <c r="F48" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="G48" s="3">
-        <v>35100</v>
+        <v>32100</v>
       </c>
       <c r="H48" s="3">
-        <v>36300</v>
+        <v>35300</v>
       </c>
       <c r="I48" s="3">
-        <v>38300</v>
+        <v>36500</v>
       </c>
       <c r="J48" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K48" s="3">
         <v>4100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>4500</v>
       </c>
       <c r="L48" s="3">
         <v>4500</v>
       </c>
       <c r="M48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N48" s="3">
         <v>4100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1500</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,13 +2881,13 @@
         <v>6800</v>
       </c>
       <c r="E49" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F49" s="3">
         <v>6900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>29000</v>
       </c>
       <c r="H49" s="3">
         <v>29100</v>
@@ -2786,19 +2896,19 @@
         <v>29300</v>
       </c>
       <c r="J49" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K49" s="3">
         <v>29500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>28400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>21800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>21600</v>
-      </c>
-      <c r="N49" s="3">
-        <v>100</v>
       </c>
       <c r="O49" s="3">
         <v>100</v>
@@ -2809,8 +2919,8 @@
       <c r="Q49" s="3">
         <v>100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
+      <c r="R49" s="3">
+        <v>100</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E52" s="3">
         <v>6300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5800</v>
       </c>
-      <c r="F52" s="3">
-        <v>9400</v>
-      </c>
       <c r="G52" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H52" s="3">
         <v>9300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,55 +3176,58 @@
         <v>160500</v>
       </c>
       <c r="E54" s="3">
-        <v>163100</v>
+        <v>161200</v>
       </c>
       <c r="F54" s="3">
-        <v>157800</v>
+        <v>163800</v>
       </c>
       <c r="G54" s="3">
-        <v>190500</v>
+        <v>158500</v>
       </c>
       <c r="H54" s="3">
-        <v>189100</v>
+        <v>191400</v>
       </c>
       <c r="I54" s="3">
-        <v>189500</v>
+        <v>189900</v>
       </c>
       <c r="J54" s="3">
+        <v>190300</v>
+      </c>
+      <c r="K54" s="3">
         <v>141800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>140000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>133600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>137900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>117600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>144700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>49100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>53500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,29 +3340,29 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -3254,120 +3387,129 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>34900</v>
+        <v>37900</v>
       </c>
       <c r="E59" s="3">
+        <v>35100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>37300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>32300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>40800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>30200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K59" s="3">
+        <v>23400</v>
+      </c>
+      <c r="L59" s="3">
+        <v>22200</v>
+      </c>
+      <c r="M59" s="3">
+        <v>28300</v>
+      </c>
+      <c r="N59" s="3">
         <v>37100</v>
       </c>
-      <c r="F59" s="3">
-        <v>32200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>40600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>30100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>32800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>23400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>22200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>28300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>37100</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>29700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>25200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35200</v>
+        <v>38200</v>
       </c>
       <c r="E60" s="3">
-        <v>37300</v>
+        <v>35400</v>
       </c>
       <c r="F60" s="3">
-        <v>32400</v>
+        <v>37500</v>
       </c>
       <c r="G60" s="3">
-        <v>40900</v>
+        <v>32500</v>
       </c>
       <c r="H60" s="3">
-        <v>30800</v>
+        <v>41100</v>
       </c>
       <c r="I60" s="3">
-        <v>33700</v>
+        <v>30900</v>
       </c>
       <c r="J60" s="3">
+        <v>33800</v>
+      </c>
+      <c r="K60" s="3">
         <v>25000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>28300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>37100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>29700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>25200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,43 +3564,46 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21000</v>
+        <v>20900</v>
       </c>
       <c r="E62" s="3">
-        <v>22300</v>
+        <v>21100</v>
       </c>
       <c r="F62" s="3">
-        <v>22800</v>
+        <v>22400</v>
       </c>
       <c r="G62" s="3">
-        <v>25600</v>
+        <v>22900</v>
       </c>
       <c r="H62" s="3">
-        <v>33700</v>
+        <v>25700</v>
       </c>
       <c r="I62" s="3">
-        <v>36500</v>
+        <v>33800</v>
       </c>
       <c r="J62" s="3">
+        <v>36700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1300</v>
       </c>
       <c r="M62" s="3">
         <v>1300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+      <c r="N62" s="3">
+        <v>1300</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -3466,11 +3611,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>56200</v>
+        <v>59100</v>
       </c>
       <c r="E66" s="3">
-        <v>59600</v>
+        <v>56500</v>
       </c>
       <c r="F66" s="3">
-        <v>61900</v>
+        <v>59800</v>
       </c>
       <c r="G66" s="3">
-        <v>66500</v>
+        <v>62200</v>
       </c>
       <c r="H66" s="3">
-        <v>64500</v>
+        <v>66800</v>
       </c>
       <c r="I66" s="3">
-        <v>70200</v>
+        <v>64800</v>
       </c>
       <c r="J66" s="3">
+        <v>70500</v>
+      </c>
+      <c r="K66" s="3">
         <v>33400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26400</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3878,13 +4045,13 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>24300</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>24300</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4118,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3959,11 +4132,11 @@
       <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-16800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
@@ -3971,41 +4144,44 @@
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>-100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1100</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
       <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
         <v>4100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>104200</v>
+        <v>101400</v>
       </c>
       <c r="E76" s="3">
-        <v>103500</v>
+        <v>104700</v>
       </c>
       <c r="F76" s="3">
-        <v>95900</v>
+        <v>104000</v>
       </c>
       <c r="G76" s="3">
-        <v>124000</v>
+        <v>96400</v>
       </c>
       <c r="H76" s="3">
-        <v>124600</v>
+        <v>124500</v>
       </c>
       <c r="I76" s="3">
-        <v>119300</v>
+        <v>125100</v>
       </c>
       <c r="J76" s="3">
+        <v>119800</v>
+      </c>
+      <c r="K76" s="3">
         <v>108400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>107400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>100700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>96300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>96700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>114000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2800</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,111 +4472,117 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
-        <v>-21900</v>
-      </c>
       <c r="G81" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="H81" s="3">
         <v>1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>8</v>
       </c>
@@ -4401,8 +4595,11 @@
       <c r="T81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>FEDU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,158 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10300</v>
+        <v>11000</v>
       </c>
       <c r="E8" s="3">
-        <v>12800</v>
+        <v>10500</v>
       </c>
       <c r="F8" s="3">
-        <v>9000</v>
+        <v>13100</v>
       </c>
       <c r="G8" s="3">
-        <v>10900</v>
+        <v>9200</v>
       </c>
       <c r="H8" s="3">
-        <v>15800</v>
+        <v>11100</v>
       </c>
       <c r="I8" s="3">
-        <v>19700</v>
+        <v>16100</v>
       </c>
       <c r="J8" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K8" s="3">
         <v>13100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,117 +824,123 @@
         <v>6500</v>
       </c>
       <c r="E9" s="3">
-        <v>7400</v>
+        <v>6600</v>
       </c>
       <c r="F9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M9" s="3">
+        <v>6300</v>
+      </c>
+      <c r="N9" s="3">
+        <v>6200</v>
+      </c>
+      <c r="O9" s="3">
         <v>5500</v>
       </c>
-      <c r="G9" s="3">
-        <v>7100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>7700</v>
-      </c>
-      <c r="I9" s="3">
-        <v>8800</v>
-      </c>
-      <c r="J9" s="3">
-        <v>7100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>7000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>6300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>6200</v>
-      </c>
-      <c r="N9" s="3">
-        <v>5500</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3000</v>
-      </c>
-      <c r="T9" s="3">
-        <v>3400</v>
       </c>
       <c r="U9" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3800</v>
+        <v>4400</v>
       </c>
       <c r="E10" s="3">
-        <v>5400</v>
+        <v>3900</v>
       </c>
       <c r="F10" s="3">
-        <v>3400</v>
+        <v>5600</v>
       </c>
       <c r="G10" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="H10" s="3">
-        <v>8100</v>
+        <v>3900</v>
       </c>
       <c r="I10" s="3">
-        <v>10800</v>
+        <v>8300</v>
       </c>
       <c r="J10" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K10" s="3">
         <v>6000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,13 +1084,16 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1081,11 +1101,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>22200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>22700</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1102,8 +1122,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1118,16 +1138,19 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1214,43 +1241,43 @@
         <v>12300</v>
       </c>
       <c r="E17" s="3">
-        <v>13200</v>
+        <v>12500</v>
       </c>
       <c r="F17" s="3">
-        <v>10900</v>
+        <v>13500</v>
       </c>
       <c r="G17" s="3">
-        <v>36500</v>
+        <v>11100</v>
       </c>
       <c r="H17" s="3">
-        <v>14200</v>
+        <v>37300</v>
       </c>
       <c r="I17" s="3">
-        <v>15400</v>
+        <v>14500</v>
       </c>
       <c r="J17" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K17" s="3">
         <v>13400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>9700</v>
       </c>
       <c r="P17" s="3">
         <v>9700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>8</v>
+      <c r="Q17" s="3">
+        <v>9700</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>8</v>
@@ -1264,53 +1291,56 @@
       <c r="U17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1900</v>
+        <v>-1300</v>
       </c>
       <c r="E18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
-        <v>-1900</v>
-      </c>
       <c r="G18" s="3">
-        <v>-25700</v>
+        <v>-2000</v>
       </c>
       <c r="H18" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="I18" s="3">
         <v>1700</v>
       </c>
-      <c r="I18" s="3">
-        <v>4300</v>
-      </c>
       <c r="J18" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1323,8 +1353,11 @@
       <c r="U18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,43 +1389,43 @@
         <v>500</v>
       </c>
       <c r="E20" s="3">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
-        <v>1000</v>
-      </c>
       <c r="I20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>200</v>
       </c>
       <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>8</v>
+      <c r="Q20" s="3">
+        <v>200</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>8</v>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1464,8 +1501,11 @@
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
-        <v>-1600</v>
-      </c>
       <c r="G23" s="3">
-        <v>-24600</v>
+        <v>-1700</v>
       </c>
       <c r="H23" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="I23" s="3">
         <v>2700</v>
       </c>
-      <c r="I23" s="3">
-        <v>4500</v>
-      </c>
       <c r="J23" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1000</v>
-      </c>
-      <c r="T23" s="3">
-        <v>3000</v>
       </c>
       <c r="U23" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H24" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-500</v>
-      </c>
-      <c r="T24" s="3">
-        <v>-1600</v>
       </c>
       <c r="U24" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,53 +1749,56 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-22200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>600</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1759,53 +1811,56 @@
       <c r="U26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
-        <v>-1600</v>
-      </c>
       <c r="G27" s="3">
-        <v>-22000</v>
+        <v>-1700</v>
       </c>
       <c r="H27" s="3">
-        <v>1700</v>
+        <v>-22400</v>
       </c>
       <c r="I27" s="3">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="J27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1600</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1818,8 +1873,11 @@
       <c r="U27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,43 +2133,43 @@
         <v>-500</v>
       </c>
       <c r="E32" s="3">
-        <v>-1300</v>
+        <v>-500</v>
       </c>
       <c r="F32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-200</v>
       </c>
       <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>8</v>
+      <c r="Q32" s="3">
+        <v>-200</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>8</v>
@@ -2113,53 +2183,56 @@
       <c r="U32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
-        <v>-1600</v>
-      </c>
       <c r="G33" s="3">
-        <v>-22000</v>
+        <v>-1700</v>
       </c>
       <c r="H33" s="3">
-        <v>1700</v>
+        <v>-22400</v>
       </c>
       <c r="I33" s="3">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="J33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1600</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2172,8 +2245,11 @@
       <c r="U33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,53 +2307,56 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
-        <v>-1600</v>
-      </c>
       <c r="G35" s="3">
-        <v>-22000</v>
+        <v>-1700</v>
       </c>
       <c r="H35" s="3">
-        <v>1700</v>
+        <v>-22400</v>
       </c>
       <c r="I35" s="3">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="J35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1600</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2290,72 +2369,78 @@
       <c r="U35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,100 +2486,104 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>68500</v>
+      </c>
+      <c r="F41" s="3">
+        <v>66000</v>
+      </c>
+      <c r="G41" s="3">
         <v>67100</v>
       </c>
-      <c r="E41" s="3">
-        <v>64600</v>
-      </c>
-      <c r="F41" s="3">
-        <v>65700</v>
-      </c>
-      <c r="G41" s="3">
-        <v>61800</v>
-      </c>
       <c r="H41" s="3">
-        <v>86300</v>
+        <v>63100</v>
       </c>
       <c r="I41" s="3">
-        <v>78900</v>
+        <v>88100</v>
       </c>
       <c r="J41" s="3">
+        <v>80500</v>
+      </c>
+      <c r="K41" s="3">
         <v>78700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>66900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>72200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>78500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>84000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>86600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>137300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>43700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>42100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F42" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>29900</v>
+      </c>
+      <c r="I42" s="3">
+        <v>27600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K42" s="3">
+        <v>31300</v>
+      </c>
+      <c r="L42" s="3">
         <v>5000</v>
       </c>
-      <c r="E42" s="3">
-        <v>5200</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G42" s="3">
-        <v>29300</v>
-      </c>
-      <c r="H42" s="3">
-        <v>27000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>32200</v>
-      </c>
-      <c r="J42" s="3">
-        <v>31300</v>
-      </c>
-      <c r="K42" s="3">
-        <v>5000</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4900</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2509,8 +2599,8 @@
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2518,67 +2608,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="E43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2800</v>
       </c>
-      <c r="G43" s="3">
-        <v>3000</v>
-      </c>
       <c r="H43" s="3">
-        <v>4100</v>
+        <v>3100</v>
       </c>
       <c r="I43" s="3">
         <v>4200</v>
       </c>
       <c r="J43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K43" s="3">
         <v>3900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8500</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2674,18 +2773,18 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2695,84 +2794,90 @@
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>74100</v>
+        <v>80700</v>
       </c>
       <c r="E46" s="3">
-        <v>72400</v>
+        <v>75600</v>
       </c>
       <c r="F46" s="3">
-        <v>70100</v>
+        <v>73900</v>
       </c>
       <c r="G46" s="3">
-        <v>94100</v>
+        <v>71500</v>
       </c>
       <c r="H46" s="3">
-        <v>117400</v>
+        <v>96100</v>
       </c>
       <c r="I46" s="3">
-        <v>115300</v>
+        <v>119900</v>
       </c>
       <c r="J46" s="3">
+        <v>117800</v>
+      </c>
+      <c r="K46" s="3">
         <v>113900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>75400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>80500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>82000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>87600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>88300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>139800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>44900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>50600</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>41900</v>
+        <v>31700</v>
       </c>
       <c r="E47" s="3">
-        <v>43300</v>
+        <v>42800</v>
       </c>
       <c r="F47" s="3">
-        <v>49500</v>
+        <v>44200</v>
       </c>
       <c r="G47" s="3">
-        <v>16200</v>
+        <v>50500</v>
       </c>
       <c r="H47" s="3">
-        <v>200</v>
+        <v>16500</v>
       </c>
       <c r="I47" s="3">
         <v>200</v>
@@ -2781,31 +2886,31 @@
         <v>200</v>
       </c>
       <c r="K47" s="3">
+        <v>200</v>
+      </c>
+      <c r="L47" s="3">
         <v>24800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>24200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>23000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>22400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>23500</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
@@ -2813,105 +2918,111 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31000</v>
+        <v>26000</v>
       </c>
       <c r="E48" s="3">
-        <v>32400</v>
+        <v>31700</v>
       </c>
       <c r="F48" s="3">
-        <v>31600</v>
+        <v>33100</v>
       </c>
       <c r="G48" s="3">
-        <v>32100</v>
+        <v>32200</v>
       </c>
       <c r="H48" s="3">
-        <v>35300</v>
+        <v>32700</v>
       </c>
       <c r="I48" s="3">
-        <v>36500</v>
+        <v>36000</v>
       </c>
       <c r="J48" s="3">
+        <v>37300</v>
+      </c>
+      <c r="K48" s="3">
         <v>38400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>4500</v>
       </c>
       <c r="M48" s="3">
         <v>4500</v>
       </c>
       <c r="N48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="O48" s="3">
         <v>4100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1500</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="E49" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="F49" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H49" s="3">
         <v>6900</v>
       </c>
-      <c r="G49" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>29100</v>
-      </c>
       <c r="I49" s="3">
-        <v>29300</v>
+        <v>29700</v>
       </c>
       <c r="J49" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K49" s="3">
         <v>29400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>28400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>21800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>21600</v>
-      </c>
-      <c r="O49" s="3">
-        <v>100</v>
       </c>
       <c r="P49" s="3">
         <v>100</v>
@@ -2922,8 +3033,8 @@
       <c r="R49" s="3">
         <v>100</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
+      <c r="S49" s="3">
+        <v>100</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6700</v>
+        <v>6100</v>
       </c>
       <c r="E52" s="3">
-        <v>6300</v>
+        <v>6800</v>
       </c>
       <c r="F52" s="3">
-        <v>5800</v>
+        <v>6400</v>
       </c>
       <c r="G52" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I52" s="3">
         <v>9500</v>
       </c>
-      <c r="H52" s="3">
-        <v>9300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>8600</v>
-      </c>
       <c r="J52" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K52" s="3">
         <v>8400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>160500</v>
+        <v>151400</v>
       </c>
       <c r="E54" s="3">
-        <v>161200</v>
+        <v>163900</v>
       </c>
       <c r="F54" s="3">
-        <v>163800</v>
+        <v>164600</v>
       </c>
       <c r="G54" s="3">
-        <v>158500</v>
+        <v>167300</v>
       </c>
       <c r="H54" s="3">
-        <v>191400</v>
+        <v>161900</v>
       </c>
       <c r="I54" s="3">
-        <v>189900</v>
+        <v>195400</v>
       </c>
       <c r="J54" s="3">
+        <v>193900</v>
+      </c>
+      <c r="K54" s="3">
         <v>190300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>141800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>140000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>133600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>137900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>117600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>144700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>49100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>53500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3331,41 +3462,44 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
@@ -3390,126 +3524,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>37900</v>
+        <v>34300</v>
       </c>
       <c r="E59" s="3">
-        <v>35100</v>
+        <v>38700</v>
       </c>
       <c r="F59" s="3">
-        <v>37300</v>
+        <v>35800</v>
       </c>
       <c r="G59" s="3">
-        <v>32300</v>
+        <v>38100</v>
       </c>
       <c r="H59" s="3">
-        <v>40800</v>
+        <v>33000</v>
       </c>
       <c r="I59" s="3">
-        <v>30200</v>
+        <v>41700</v>
       </c>
       <c r="J59" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K59" s="3">
         <v>32900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>37100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>29700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>25200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38200</v>
+        <v>34500</v>
       </c>
       <c r="E60" s="3">
-        <v>35400</v>
+        <v>39000</v>
       </c>
       <c r="F60" s="3">
-        <v>37500</v>
+        <v>36100</v>
       </c>
       <c r="G60" s="3">
-        <v>32500</v>
+        <v>38300</v>
       </c>
       <c r="H60" s="3">
-        <v>41100</v>
+        <v>33200</v>
       </c>
       <c r="I60" s="3">
-        <v>30900</v>
+        <v>42000</v>
       </c>
       <c r="J60" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K60" s="3">
         <v>33800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>28300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>37100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>29700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>25200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,46 +3710,49 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20900</v>
+        <v>15500</v>
       </c>
       <c r="E62" s="3">
-        <v>21100</v>
+        <v>21400</v>
       </c>
       <c r="F62" s="3">
-        <v>22400</v>
+        <v>21500</v>
       </c>
       <c r="G62" s="3">
         <v>22900</v>
       </c>
       <c r="H62" s="3">
-        <v>25700</v>
+        <v>23300</v>
       </c>
       <c r="I62" s="3">
-        <v>33800</v>
+        <v>26300</v>
       </c>
       <c r="J62" s="3">
+        <v>34500</v>
+      </c>
+      <c r="K62" s="3">
         <v>36700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1600</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1300</v>
       </c>
       <c r="N62" s="3">
         <v>1300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
+      <c r="O62" s="3">
+        <v>1300</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
@@ -3614,11 +3760,11 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59100</v>
+        <v>50000</v>
       </c>
       <c r="E66" s="3">
-        <v>56500</v>
+        <v>60400</v>
       </c>
       <c r="F66" s="3">
-        <v>59800</v>
+        <v>57700</v>
       </c>
       <c r="G66" s="3">
-        <v>62200</v>
+        <v>61100</v>
       </c>
       <c r="H66" s="3">
-        <v>66800</v>
+        <v>63500</v>
       </c>
       <c r="I66" s="3">
-        <v>64800</v>
+        <v>68200</v>
       </c>
       <c r="J66" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K66" s="3">
         <v>70500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>26400</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4048,13 +4216,13 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <v>24300</v>
+        <v>0</v>
       </c>
       <c r="R70" s="3">
         <v>24300</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,8 +4292,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4135,11 +4309,11 @@
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="3">
-        <v>-16800</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-17200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
@@ -4147,41 +4321,44 @@
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>-100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1100</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
       <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
         <v>4100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-100</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,8 +4540,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4366,58 +4552,61 @@
         <v>101400</v>
       </c>
       <c r="E76" s="3">
-        <v>104700</v>
+        <v>103500</v>
       </c>
       <c r="F76" s="3">
-        <v>104000</v>
+        <v>106900</v>
       </c>
       <c r="G76" s="3">
-        <v>96400</v>
+        <v>106200</v>
       </c>
       <c r="H76" s="3">
-        <v>124500</v>
+        <v>98400</v>
       </c>
       <c r="I76" s="3">
-        <v>125100</v>
+        <v>127100</v>
       </c>
       <c r="J76" s="3">
+        <v>127800</v>
+      </c>
+      <c r="K76" s="3">
         <v>119800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>108400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>107400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>100700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>96300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>96700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>114000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2800</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,117 +4664,123 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
-        <v>-1600</v>
-      </c>
       <c r="G81" s="3">
-        <v>-22000</v>
+        <v>-1700</v>
       </c>
       <c r="H81" s="3">
-        <v>1700</v>
+        <v>-22400</v>
       </c>
       <c r="I81" s="3">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="J81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1600</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>8</v>
       </c>
@@ -4598,8 +4793,11 @@
       <c r="U81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>FEDU</t>
   </si>
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11000</v>
+        <v>10800</v>
       </c>
       <c r="E8" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="F8" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="G8" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="H8" s="3">
-        <v>11100</v>
+        <v>10900</v>
       </c>
       <c r="I8" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="J8" s="3">
-        <v>20100</v>
+        <v>19800</v>
       </c>
       <c r="K8" s="3">
         <v>13100</v>
@@ -824,22 +824,22 @@
         <v>6500</v>
       </c>
       <c r="E9" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="F9" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="G9" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="H9" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="I9" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="J9" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="K9" s="3">
         <v>7100</v>
@@ -889,19 +889,19 @@
         <v>3900</v>
       </c>
       <c r="F10" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="G10" s="3">
         <v>3500</v>
       </c>
       <c r="H10" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="I10" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="J10" s="3">
-        <v>11100</v>
+        <v>10900</v>
       </c>
       <c r="K10" s="3">
         <v>6000</v>
@@ -1105,7 +1105,7 @@
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>22700</v>
+        <v>22400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1238,25 +1238,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="E17" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="F17" s="3">
-        <v>13500</v>
+        <v>13300</v>
       </c>
       <c r="G17" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="H17" s="3">
-        <v>37300</v>
+        <v>36800</v>
       </c>
       <c r="I17" s="3">
-        <v>14500</v>
+        <v>14300</v>
       </c>
       <c r="J17" s="3">
-        <v>15700</v>
+        <v>15500</v>
       </c>
       <c r="K17" s="3">
         <v>13400</v>
@@ -1309,10 +1309,10 @@
         <v>-400</v>
       </c>
       <c r="G18" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="H18" s="3">
-        <v>-26200</v>
+        <v>-25900</v>
       </c>
       <c r="I18" s="3">
         <v>1700</v>
@@ -1392,7 +1392,7 @@
         <v>500</v>
       </c>
       <c r="F20" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
@@ -1401,7 +1401,7 @@
         <v>1100</v>
       </c>
       <c r="I20" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
@@ -1584,13 +1584,13 @@
         <v>-1700</v>
       </c>
       <c r="H23" s="3">
-        <v>-25100</v>
+        <v>-24800</v>
       </c>
       <c r="I23" s="3">
         <v>2700</v>
       </c>
       <c r="J23" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="K23" s="3">
         <v>1300</v>
@@ -1646,7 +1646,7 @@
         <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="I24" s="3">
         <v>1000</v>
@@ -1764,19 +1764,19 @@
         <v>-1200</v>
       </c>
       <c r="F26" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G26" s="3">
         <v>-1600</v>
       </c>
       <c r="H26" s="3">
-        <v>-22700</v>
+        <v>-22400</v>
       </c>
       <c r="I26" s="3">
         <v>1800</v>
       </c>
       <c r="J26" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K26" s="3">
         <v>600</v>
@@ -1829,13 +1829,13 @@
         <v>500</v>
       </c>
       <c r="G27" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="H27" s="3">
-        <v>-22400</v>
+        <v>-22100</v>
       </c>
       <c r="I27" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J27" s="3">
         <v>3000</v>
@@ -2136,7 +2136,7 @@
         <v>-500</v>
       </c>
       <c r="F32" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
@@ -2145,7 +2145,7 @@
         <v>-1100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
@@ -2201,13 +2201,13 @@
         <v>500</v>
       </c>
       <c r="G33" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="H33" s="3">
-        <v>-22400</v>
+        <v>-22100</v>
       </c>
       <c r="I33" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J33" s="3">
         <v>3000</v>
@@ -2325,13 +2325,13 @@
         <v>500</v>
       </c>
       <c r="G35" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="H35" s="3">
-        <v>-22400</v>
+        <v>-22100</v>
       </c>
       <c r="I35" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J35" s="3">
         <v>3000</v>
@@ -2493,25 +2493,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>64000</v>
+        <v>58300</v>
       </c>
       <c r="E41" s="3">
-        <v>68500</v>
+        <v>67600</v>
       </c>
       <c r="F41" s="3">
-        <v>66000</v>
+        <v>65100</v>
       </c>
       <c r="G41" s="3">
-        <v>67100</v>
+        <v>66300</v>
       </c>
       <c r="H41" s="3">
-        <v>63100</v>
+        <v>62300</v>
       </c>
       <c r="I41" s="3">
-        <v>88100</v>
+        <v>86900</v>
       </c>
       <c r="J41" s="3">
-        <v>80500</v>
+        <v>79500</v>
       </c>
       <c r="K41" s="3">
         <v>78700</v>
@@ -2555,25 +2555,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15100</v>
+        <v>19600</v>
       </c>
       <c r="E42" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="F42" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G42" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H42" s="3">
-        <v>29900</v>
+        <v>29500</v>
       </c>
       <c r="I42" s="3">
-        <v>27600</v>
+        <v>27300</v>
       </c>
       <c r="J42" s="3">
-        <v>32900</v>
+        <v>32500</v>
       </c>
       <c r="K42" s="3">
         <v>31300</v>
@@ -2620,7 +2620,7 @@
         <v>1700</v>
       </c>
       <c r="E43" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F43" s="3">
         <v>2600</v>
@@ -2629,13 +2629,13 @@
         <v>2800</v>
       </c>
       <c r="H43" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I43" s="3">
         <v>4200</v>
       </c>
       <c r="J43" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K43" s="3">
         <v>3900</v>
@@ -2803,25 +2803,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>80700</v>
+        <v>79600</v>
       </c>
       <c r="E46" s="3">
-        <v>75600</v>
+        <v>74700</v>
       </c>
       <c r="F46" s="3">
-        <v>73900</v>
+        <v>72900</v>
       </c>
       <c r="G46" s="3">
-        <v>71500</v>
+        <v>70600</v>
       </c>
       <c r="H46" s="3">
-        <v>96100</v>
+        <v>94900</v>
       </c>
       <c r="I46" s="3">
-        <v>119900</v>
+        <v>118300</v>
       </c>
       <c r="J46" s="3">
-        <v>117800</v>
+        <v>116200</v>
       </c>
       <c r="K46" s="3">
         <v>113900</v>
@@ -2865,19 +2865,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>31700</v>
+        <v>30800</v>
       </c>
       <c r="E47" s="3">
-        <v>42800</v>
+        <v>42200</v>
       </c>
       <c r="F47" s="3">
-        <v>44200</v>
+        <v>43600</v>
       </c>
       <c r="G47" s="3">
-        <v>50500</v>
+        <v>49900</v>
       </c>
       <c r="H47" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="I47" s="3">
         <v>200</v>
@@ -2927,25 +2927,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26000</v>
+        <v>25600</v>
       </c>
       <c r="E48" s="3">
-        <v>31700</v>
+        <v>31300</v>
       </c>
       <c r="F48" s="3">
-        <v>33100</v>
+        <v>32600</v>
       </c>
       <c r="G48" s="3">
-        <v>32200</v>
+        <v>31800</v>
       </c>
       <c r="H48" s="3">
-        <v>32700</v>
+        <v>32300</v>
       </c>
       <c r="I48" s="3">
-        <v>36000</v>
+        <v>35600</v>
       </c>
       <c r="J48" s="3">
-        <v>37300</v>
+        <v>36800</v>
       </c>
       <c r="K48" s="3">
         <v>38400</v>
@@ -2989,25 +2989,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E49" s="3">
         <v>6900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G49" s="3">
         <v>7000</v>
       </c>
-      <c r="F49" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>7100</v>
-      </c>
       <c r="H49" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="I49" s="3">
-        <v>29700</v>
+        <v>29300</v>
       </c>
       <c r="J49" s="3">
-        <v>29900</v>
+        <v>29500</v>
       </c>
       <c r="K49" s="3">
         <v>29400</v>
@@ -3178,22 +3178,22 @@
         <v>6100</v>
       </c>
       <c r="E52" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="F52" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="G52" s="3">
         <v>5900</v>
       </c>
       <c r="H52" s="3">
-        <v>9700</v>
+        <v>9500</v>
       </c>
       <c r="I52" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="J52" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="K52" s="3">
         <v>8400</v>
@@ -3299,25 +3299,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>151400</v>
+        <v>148900</v>
       </c>
       <c r="E54" s="3">
-        <v>163900</v>
+        <v>161700</v>
       </c>
       <c r="F54" s="3">
-        <v>164600</v>
+        <v>162400</v>
       </c>
       <c r="G54" s="3">
-        <v>167300</v>
+        <v>165100</v>
       </c>
       <c r="H54" s="3">
-        <v>161900</v>
+        <v>159800</v>
       </c>
       <c r="I54" s="3">
-        <v>195400</v>
+        <v>192900</v>
       </c>
       <c r="J54" s="3">
-        <v>193900</v>
+        <v>191400</v>
       </c>
       <c r="K54" s="3">
         <v>190300</v>
@@ -3533,25 +3533,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>34300</v>
+        <v>34700</v>
       </c>
       <c r="E59" s="3">
-        <v>38700</v>
+        <v>38200</v>
       </c>
       <c r="F59" s="3">
-        <v>35800</v>
+        <v>35300</v>
       </c>
       <c r="G59" s="3">
-        <v>38100</v>
+        <v>37600</v>
       </c>
       <c r="H59" s="3">
-        <v>33000</v>
+        <v>32600</v>
       </c>
       <c r="I59" s="3">
-        <v>41700</v>
+        <v>41100</v>
       </c>
       <c r="J59" s="3">
-        <v>30800</v>
+        <v>30400</v>
       </c>
       <c r="K59" s="3">
         <v>32900</v>
@@ -3595,25 +3595,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>34500</v>
+        <v>35000</v>
       </c>
       <c r="E60" s="3">
-        <v>39000</v>
+        <v>38500</v>
       </c>
       <c r="F60" s="3">
-        <v>36100</v>
+        <v>35600</v>
       </c>
       <c r="G60" s="3">
-        <v>38300</v>
+        <v>37800</v>
       </c>
       <c r="H60" s="3">
-        <v>33200</v>
+        <v>32800</v>
       </c>
       <c r="I60" s="3">
-        <v>42000</v>
+        <v>41400</v>
       </c>
       <c r="J60" s="3">
-        <v>31600</v>
+        <v>31200</v>
       </c>
       <c r="K60" s="3">
         <v>33800</v>
@@ -3719,25 +3719,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15500</v>
+        <v>14400</v>
       </c>
       <c r="E62" s="3">
-        <v>21400</v>
+        <v>21100</v>
       </c>
       <c r="F62" s="3">
-        <v>21500</v>
+        <v>21300</v>
       </c>
       <c r="G62" s="3">
-        <v>22900</v>
+        <v>22600</v>
       </c>
       <c r="H62" s="3">
-        <v>23300</v>
+        <v>23000</v>
       </c>
       <c r="I62" s="3">
-        <v>26300</v>
+        <v>25900</v>
       </c>
       <c r="J62" s="3">
-        <v>34500</v>
+        <v>34100</v>
       </c>
       <c r="K62" s="3">
         <v>36700</v>
@@ -3967,25 +3967,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50000</v>
+        <v>58300</v>
       </c>
       <c r="E66" s="3">
-        <v>60400</v>
+        <v>59600</v>
       </c>
       <c r="F66" s="3">
-        <v>57700</v>
+        <v>56900</v>
       </c>
       <c r="G66" s="3">
-        <v>61100</v>
+        <v>60300</v>
       </c>
       <c r="H66" s="3">
-        <v>63500</v>
+        <v>62600</v>
       </c>
       <c r="I66" s="3">
-        <v>68200</v>
+        <v>67400</v>
       </c>
       <c r="J66" s="3">
-        <v>66100</v>
+        <v>65300</v>
       </c>
       <c r="K66" s="3">
         <v>70500</v>
@@ -4300,8 +4300,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>-21300</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
@@ -4313,7 +4313,7 @@
         <v>8</v>
       </c>
       <c r="H72" s="3">
-        <v>-17200</v>
+        <v>-17000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
@@ -4549,25 +4549,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>101400</v>
+        <v>90600</v>
       </c>
       <c r="E76" s="3">
-        <v>103500</v>
+        <v>102200</v>
       </c>
       <c r="F76" s="3">
-        <v>106900</v>
+        <v>105500</v>
       </c>
       <c r="G76" s="3">
-        <v>106200</v>
+        <v>104800</v>
       </c>
       <c r="H76" s="3">
-        <v>98400</v>
+        <v>97100</v>
       </c>
       <c r="I76" s="3">
-        <v>127100</v>
+        <v>125500</v>
       </c>
       <c r="J76" s="3">
-        <v>127800</v>
+        <v>126100</v>
       </c>
       <c r="K76" s="3">
         <v>119800</v>
@@ -4749,13 +4749,13 @@
         <v>500</v>
       </c>
       <c r="G81" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="H81" s="3">
-        <v>-22400</v>
+        <v>-22100</v>
       </c>
       <c r="I81" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J81" s="3">
         <v>3000</v>

--- a/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="E8" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="F8" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="G8" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="H8" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="I8" s="3">
-        <v>15900</v>
+        <v>16200</v>
       </c>
       <c r="J8" s="3">
-        <v>19800</v>
+        <v>20200</v>
       </c>
       <c r="K8" s="3">
         <v>13100</v>
@@ -821,25 +821,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="E9" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="F9" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="G9" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="H9" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="I9" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="J9" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="K9" s="3">
         <v>7100</v>
@@ -889,19 +889,19 @@
         <v>3900</v>
       </c>
       <c r="F10" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="G10" s="3">
         <v>3500</v>
       </c>
       <c r="H10" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="I10" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="J10" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="K10" s="3">
         <v>6000</v>
@@ -1105,7 +1105,7 @@
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>22400</v>
+        <v>22800</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1238,25 +1238,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="E17" s="3">
-        <v>12400</v>
+        <v>12600</v>
       </c>
       <c r="F17" s="3">
-        <v>13300</v>
+        <v>13500</v>
       </c>
       <c r="G17" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="H17" s="3">
-        <v>36800</v>
+        <v>37500</v>
       </c>
       <c r="I17" s="3">
-        <v>14300</v>
+        <v>14500</v>
       </c>
       <c r="J17" s="3">
-        <v>15500</v>
+        <v>15700</v>
       </c>
       <c r="K17" s="3">
         <v>13400</v>
@@ -1309,10 +1309,10 @@
         <v>-400</v>
       </c>
       <c r="G18" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="H18" s="3">
-        <v>-25900</v>
+        <v>-26300</v>
       </c>
       <c r="I18" s="3">
         <v>1700</v>
@@ -1392,7 +1392,7 @@
         <v>500</v>
       </c>
       <c r="F20" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
@@ -1401,7 +1401,7 @@
         <v>1100</v>
       </c>
       <c r="I20" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
@@ -1575,7 +1575,7 @@
         <v>-800</v>
       </c>
       <c r="E23" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F23" s="3">
         <v>900</v>
@@ -1584,13 +1584,13 @@
         <v>-1700</v>
       </c>
       <c r="H23" s="3">
-        <v>-24800</v>
+        <v>-25200</v>
       </c>
       <c r="I23" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J23" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="K23" s="3">
         <v>1300</v>
@@ -1646,7 +1646,7 @@
         <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="I24" s="3">
         <v>1000</v>
@@ -1758,25 +1758,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E26" s="3">
         <v>-1200</v>
       </c>
       <c r="F26" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G26" s="3">
         <v>-1600</v>
       </c>
       <c r="H26" s="3">
-        <v>-22400</v>
+        <v>-22800</v>
       </c>
       <c r="I26" s="3">
         <v>1800</v>
       </c>
       <c r="J26" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K26" s="3">
         <v>600</v>
@@ -1829,13 +1829,13 @@
         <v>500</v>
       </c>
       <c r="G27" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H27" s="3">
-        <v>-22100</v>
+        <v>-22500</v>
       </c>
       <c r="I27" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J27" s="3">
         <v>3000</v>
@@ -2136,7 +2136,7 @@
         <v>-500</v>
       </c>
       <c r="F32" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
@@ -2145,7 +2145,7 @@
         <v>-1100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
@@ -2201,13 +2201,13 @@
         <v>500</v>
       </c>
       <c r="G33" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H33" s="3">
-        <v>-22100</v>
+        <v>-22500</v>
       </c>
       <c r="I33" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J33" s="3">
         <v>3000</v>
@@ -2325,13 +2325,13 @@
         <v>500</v>
       </c>
       <c r="G35" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H35" s="3">
-        <v>-22100</v>
+        <v>-22500</v>
       </c>
       <c r="I35" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J35" s="3">
         <v>3000</v>
@@ -2493,25 +2493,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>58300</v>
+        <v>59200</v>
       </c>
       <c r="E41" s="3">
-        <v>67600</v>
+        <v>68700</v>
       </c>
       <c r="F41" s="3">
-        <v>65100</v>
+        <v>66200</v>
       </c>
       <c r="G41" s="3">
-        <v>66300</v>
+        <v>67400</v>
       </c>
       <c r="H41" s="3">
-        <v>62300</v>
+        <v>63400</v>
       </c>
       <c r="I41" s="3">
-        <v>86900</v>
+        <v>88400</v>
       </c>
       <c r="J41" s="3">
-        <v>79500</v>
+        <v>80800</v>
       </c>
       <c r="K41" s="3">
         <v>78700</v>
@@ -2555,25 +2555,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19600</v>
+        <v>20000</v>
       </c>
       <c r="E42" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="F42" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="G42" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H42" s="3">
-        <v>29500</v>
+        <v>30000</v>
       </c>
       <c r="I42" s="3">
-        <v>27300</v>
+        <v>27700</v>
       </c>
       <c r="J42" s="3">
-        <v>32500</v>
+        <v>33000</v>
       </c>
       <c r="K42" s="3">
         <v>31300</v>
@@ -2620,22 +2620,22 @@
         <v>1700</v>
       </c>
       <c r="E43" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F43" s="3">
         <v>2600</v>
       </c>
       <c r="G43" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H43" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I43" s="3">
         <v>4200</v>
       </c>
       <c r="J43" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K43" s="3">
         <v>3900</v>
@@ -2803,25 +2803,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>79600</v>
+        <v>80900</v>
       </c>
       <c r="E46" s="3">
-        <v>74700</v>
+        <v>75900</v>
       </c>
       <c r="F46" s="3">
-        <v>72900</v>
+        <v>74200</v>
       </c>
       <c r="G46" s="3">
-        <v>70600</v>
+        <v>71800</v>
       </c>
       <c r="H46" s="3">
-        <v>94900</v>
+        <v>96500</v>
       </c>
       <c r="I46" s="3">
-        <v>118300</v>
+        <v>120300</v>
       </c>
       <c r="J46" s="3">
-        <v>116200</v>
+        <v>118200</v>
       </c>
       <c r="K46" s="3">
         <v>113900</v>
@@ -2865,19 +2865,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>30800</v>
+        <v>31300</v>
       </c>
       <c r="E47" s="3">
-        <v>42200</v>
+        <v>42900</v>
       </c>
       <c r="F47" s="3">
-        <v>43600</v>
+        <v>44300</v>
       </c>
       <c r="G47" s="3">
-        <v>49900</v>
+        <v>50700</v>
       </c>
       <c r="H47" s="3">
-        <v>16300</v>
+        <v>16500</v>
       </c>
       <c r="I47" s="3">
         <v>200</v>
@@ -2927,25 +2927,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25600</v>
+        <v>26100</v>
       </c>
       <c r="E48" s="3">
-        <v>31300</v>
+        <v>31800</v>
       </c>
       <c r="F48" s="3">
-        <v>32600</v>
+        <v>33200</v>
       </c>
       <c r="G48" s="3">
-        <v>31800</v>
+        <v>32300</v>
       </c>
       <c r="H48" s="3">
-        <v>32300</v>
+        <v>32800</v>
       </c>
       <c r="I48" s="3">
-        <v>35600</v>
+        <v>36200</v>
       </c>
       <c r="J48" s="3">
-        <v>36800</v>
+        <v>37400</v>
       </c>
       <c r="K48" s="3">
         <v>38400</v>
@@ -2989,25 +2989,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="E49" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H49" s="3">
         <v>6900</v>
       </c>
-      <c r="F49" s="3">
-        <v>6900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>7000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>6800</v>
-      </c>
       <c r="I49" s="3">
-        <v>29300</v>
+        <v>29800</v>
       </c>
       <c r="J49" s="3">
-        <v>29500</v>
+        <v>30000</v>
       </c>
       <c r="K49" s="3">
         <v>29400</v>
@@ -3175,25 +3175,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="E52" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="F52" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="G52" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="H52" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="I52" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="J52" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="K52" s="3">
         <v>8400</v>
@@ -3299,25 +3299,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>148900</v>
+        <v>151400</v>
       </c>
       <c r="E54" s="3">
-        <v>161700</v>
+        <v>164400</v>
       </c>
       <c r="F54" s="3">
+        <v>165100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>167900</v>
+      </c>
+      <c r="H54" s="3">
         <v>162400</v>
       </c>
-      <c r="G54" s="3">
-        <v>165100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>159800</v>
-      </c>
       <c r="I54" s="3">
-        <v>192900</v>
+        <v>196100</v>
       </c>
       <c r="J54" s="3">
-        <v>191400</v>
+        <v>194600</v>
       </c>
       <c r="K54" s="3">
         <v>190300</v>
@@ -3533,25 +3533,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>34700</v>
+        <v>35300</v>
       </c>
       <c r="E59" s="3">
+        <v>38800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>35900</v>
+      </c>
+      <c r="G59" s="3">
         <v>38200</v>
       </c>
-      <c r="F59" s="3">
-        <v>35300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>37600</v>
-      </c>
       <c r="H59" s="3">
-        <v>32600</v>
+        <v>33100</v>
       </c>
       <c r="I59" s="3">
-        <v>41100</v>
+        <v>41800</v>
       </c>
       <c r="J59" s="3">
-        <v>30400</v>
+        <v>30900</v>
       </c>
       <c r="K59" s="3">
         <v>32900</v>
@@ -3595,25 +3595,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35000</v>
+        <v>35500</v>
       </c>
       <c r="E60" s="3">
-        <v>38500</v>
+        <v>39100</v>
       </c>
       <c r="F60" s="3">
-        <v>35600</v>
+        <v>36200</v>
       </c>
       <c r="G60" s="3">
-        <v>37800</v>
+        <v>38400</v>
       </c>
       <c r="H60" s="3">
-        <v>32800</v>
+        <v>33400</v>
       </c>
       <c r="I60" s="3">
-        <v>41400</v>
+        <v>42100</v>
       </c>
       <c r="J60" s="3">
-        <v>31200</v>
+        <v>31700</v>
       </c>
       <c r="K60" s="3">
         <v>33800</v>
@@ -3719,25 +3719,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14400</v>
+        <v>14700</v>
       </c>
       <c r="E62" s="3">
-        <v>21100</v>
+        <v>21400</v>
       </c>
       <c r="F62" s="3">
-        <v>21300</v>
+        <v>21600</v>
       </c>
       <c r="G62" s="3">
-        <v>22600</v>
+        <v>22900</v>
       </c>
       <c r="H62" s="3">
-        <v>23000</v>
+        <v>23400</v>
       </c>
       <c r="I62" s="3">
-        <v>25900</v>
+        <v>26400</v>
       </c>
       <c r="J62" s="3">
-        <v>34100</v>
+        <v>34700</v>
       </c>
       <c r="K62" s="3">
         <v>36700</v>
@@ -3967,25 +3967,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>58300</v>
+        <v>59300</v>
       </c>
       <c r="E66" s="3">
-        <v>59600</v>
+        <v>60600</v>
       </c>
       <c r="F66" s="3">
-        <v>56900</v>
+        <v>57900</v>
       </c>
       <c r="G66" s="3">
-        <v>60300</v>
+        <v>61300</v>
       </c>
       <c r="H66" s="3">
-        <v>62600</v>
+        <v>63700</v>
       </c>
       <c r="I66" s="3">
-        <v>67400</v>
+        <v>68500</v>
       </c>
       <c r="J66" s="3">
-        <v>65300</v>
+        <v>66400</v>
       </c>
       <c r="K66" s="3">
         <v>70500</v>
@@ -4301,7 +4301,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-21300</v>
+        <v>-21700</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
@@ -4313,7 +4313,7 @@
         <v>8</v>
       </c>
       <c r="H72" s="3">
-        <v>-17000</v>
+        <v>-17200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
@@ -4549,25 +4549,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>90600</v>
+        <v>92200</v>
       </c>
       <c r="E76" s="3">
-        <v>102200</v>
+        <v>103900</v>
       </c>
       <c r="F76" s="3">
-        <v>105500</v>
+        <v>107300</v>
       </c>
       <c r="G76" s="3">
-        <v>104800</v>
+        <v>106600</v>
       </c>
       <c r="H76" s="3">
-        <v>97100</v>
+        <v>98800</v>
       </c>
       <c r="I76" s="3">
-        <v>125500</v>
+        <v>127600</v>
       </c>
       <c r="J76" s="3">
-        <v>126100</v>
+        <v>128200</v>
       </c>
       <c r="K76" s="3">
         <v>119800</v>
@@ -4749,13 +4749,13 @@
         <v>500</v>
       </c>
       <c r="G81" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H81" s="3">
-        <v>-22100</v>
+        <v>-22500</v>
       </c>
       <c r="I81" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J81" s="3">
         <v>3000</v>

--- a/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>FEDU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11000</v>
+        <v>28200</v>
       </c>
       <c r="E8" s="3">
-        <v>10600</v>
+        <v>11100</v>
       </c>
       <c r="F8" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G8" s="3">
+        <v>13200</v>
+      </c>
+      <c r="H8" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K8" s="3">
+        <v>20200</v>
+      </c>
+      <c r="L8" s="3">
         <v>13100</v>
       </c>
-      <c r="G8" s="3">
-        <v>9200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>11100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>16200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>20200</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
+        <v>9800</v>
+      </c>
+      <c r="N8" s="3">
+        <v>13200</v>
+      </c>
+      <c r="O8" s="3">
         <v>13100</v>
       </c>
-      <c r="L8" s="3">
-        <v>9800</v>
-      </c>
-      <c r="M8" s="3">
-        <v>13200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>13100</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6600</v>
+        <v>17500</v>
       </c>
       <c r="E9" s="3">
         <v>6600</v>
       </c>
       <c r="F9" s="3">
-        <v>7500</v>
+        <v>6700</v>
       </c>
       <c r="G9" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H9" s="3">
         <v>5700</v>
       </c>
-      <c r="H9" s="3">
-        <v>7200</v>
-      </c>
       <c r="I9" s="3">
-        <v>7900</v>
+        <v>7300</v>
       </c>
       <c r="J9" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K9" s="3">
         <v>9100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3000</v>
-      </c>
-      <c r="U9" s="3">
-        <v>3400</v>
       </c>
       <c r="V9" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4400</v>
+        <v>10600</v>
       </c>
       <c r="E10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I10" s="3">
         <v>3900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="J10" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K10" s="3">
+        <v>11100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N10" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="P10" s="3">
+        <v>6900</v>
+      </c>
+      <c r="Q10" s="3">
         <v>5600</v>
       </c>
-      <c r="G10" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I10" s="3">
-        <v>8300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>11100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>6000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="R10" s="3">
+        <v>8500</v>
+      </c>
+      <c r="S10" s="3">
+        <v>7300</v>
+      </c>
+      <c r="T10" s="3">
         <v>7000</v>
       </c>
-      <c r="N10" s="3">
-        <v>6800</v>
-      </c>
-      <c r="O10" s="3">
-        <v>6900</v>
-      </c>
-      <c r="P10" s="3">
-        <v>5600</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>8500</v>
-      </c>
-      <c r="R10" s="3">
-        <v>7300</v>
-      </c>
-      <c r="S10" s="3">
-        <v>7000</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,16 +1104,19 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>8300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1104,11 +1124,11 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>22800</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>22900</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1125,8 +1145,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1141,16 +1161,19 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,55 +1258,56 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12300</v>
+        <v>37000</v>
       </c>
       <c r="E17" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="F17" s="3">
-        <v>13500</v>
+        <v>12700</v>
       </c>
       <c r="G17" s="3">
-        <v>11100</v>
+        <v>13600</v>
       </c>
       <c r="H17" s="3">
-        <v>37500</v>
+        <v>11200</v>
       </c>
       <c r="I17" s="3">
-        <v>14500</v>
+        <v>37700</v>
       </c>
       <c r="J17" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K17" s="3">
         <v>15700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>9700</v>
       </c>
       <c r="Q17" s="3">
         <v>9700</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>8</v>
+      <c r="R17" s="3">
+        <v>9700</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>8</v>
@@ -1294,56 +1321,59 @@
       <c r="V17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
-        <v>-26300</v>
-      </c>
       <c r="I18" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="J18" s="3">
         <v>1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,55 +1413,56 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E20" s="3">
         <v>500</v>
       </c>
       <c r="F20" s="3">
+        <v>600</v>
+      </c>
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1100</v>
       </c>
       <c r="I20" s="3">
         <v>1100</v>
       </c>
       <c r="J20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>8</v>
+      <c r="R20" s="3">
+        <v>200</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>8</v>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
-        <v>-25200</v>
-      </c>
       <c r="I23" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="J23" s="3">
         <v>2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1000</v>
-      </c>
-      <c r="U23" s="3">
-        <v>3000</v>
       </c>
       <c r="V23" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-500</v>
-      </c>
-      <c r="U24" s="3">
-        <v>-1600</v>
       </c>
       <c r="V24" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,56 +1801,59 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
-        <v>-1200</v>
-      </c>
       <c r="F26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
-        <v>-22800</v>
-      </c>
       <c r="I26" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="J26" s="3">
         <v>1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1814,56 +1866,59 @@
       <c r="V26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
-        <v>-22500</v>
-      </c>
       <c r="I27" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="J27" s="3">
         <v>1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1600</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,55 +2191,58 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="E32" s="3">
         <v>-500</v>
       </c>
       <c r="F32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1100</v>
       </c>
       <c r="I32" s="3">
         <v>-1100</v>
       </c>
       <c r="J32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>8</v>
+      <c r="R32" s="3">
+        <v>-200</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>8</v>
@@ -2186,56 +2256,59 @@
       <c r="V32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
-        <v>-22500</v>
-      </c>
       <c r="I33" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="J33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1600</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,56 +2386,59 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
-        <v>-22500</v>
-      </c>
       <c r="I35" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="J35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1600</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,106 +2573,110 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>59200</v>
+        <v>65900</v>
       </c>
       <c r="E41" s="3">
-        <v>68700</v>
+        <v>59700</v>
       </c>
       <c r="F41" s="3">
-        <v>66200</v>
+        <v>69300</v>
       </c>
       <c r="G41" s="3">
-        <v>67400</v>
+        <v>66700</v>
       </c>
       <c r="H41" s="3">
-        <v>63400</v>
+        <v>67900</v>
       </c>
       <c r="I41" s="3">
-        <v>88400</v>
+        <v>63800</v>
       </c>
       <c r="J41" s="3">
+        <v>89100</v>
+      </c>
+      <c r="K41" s="3">
         <v>80800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>78700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>66900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>72200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>78500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>84000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>86600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>137300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>43700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>42100</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>20000</v>
+        <v>39100</v>
       </c>
       <c r="E42" s="3">
-        <v>5100</v>
+        <v>20100</v>
       </c>
       <c r="F42" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G42" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H42" s="3">
         <v>1600</v>
       </c>
-      <c r="H42" s="3">
-        <v>30000</v>
-      </c>
       <c r="I42" s="3">
-        <v>27700</v>
+        <v>30300</v>
       </c>
       <c r="J42" s="3">
+        <v>27900</v>
+      </c>
+      <c r="K42" s="3">
         <v>33000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>31300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4900</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2602,8 +2692,8 @@
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2611,70 +2701,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>4200</v>
       </c>
       <c r="J43" s="3">
         <v>4300</v>
       </c>
       <c r="K43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L43" s="3">
         <v>3900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8500</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2776,18 +2875,18 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>1100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2797,90 +2896,96 @@
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>80900</v>
+        <v>106900</v>
       </c>
       <c r="E46" s="3">
-        <v>75900</v>
+        <v>81500</v>
       </c>
       <c r="F46" s="3">
-        <v>74200</v>
+        <v>76500</v>
       </c>
       <c r="G46" s="3">
-        <v>71800</v>
+        <v>74700</v>
       </c>
       <c r="H46" s="3">
-        <v>96500</v>
+        <v>72300</v>
       </c>
       <c r="I46" s="3">
-        <v>120300</v>
+        <v>97200</v>
       </c>
       <c r="J46" s="3">
+        <v>121200</v>
+      </c>
+      <c r="K46" s="3">
         <v>118200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>113900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>75400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>80500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>82000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>87600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>88300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>139800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>44900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>50600</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>31300</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>42900</v>
+        <v>31600</v>
       </c>
       <c r="F47" s="3">
-        <v>44300</v>
+        <v>43200</v>
       </c>
       <c r="G47" s="3">
-        <v>50700</v>
+        <v>44700</v>
       </c>
       <c r="H47" s="3">
-        <v>16500</v>
+        <v>51100</v>
       </c>
       <c r="I47" s="3">
-        <v>200</v>
+        <v>16700</v>
       </c>
       <c r="J47" s="3">
         <v>200</v>
@@ -2889,31 +2994,31 @@
         <v>200</v>
       </c>
       <c r="L47" s="3">
+        <v>200</v>
+      </c>
+      <c r="M47" s="3">
         <v>24800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>24200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>23000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>22400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>23500</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
@@ -2921,75 +3026,81 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26100</v>
+        <v>6500</v>
       </c>
       <c r="E48" s="3">
-        <v>31800</v>
+        <v>26300</v>
       </c>
       <c r="F48" s="3">
-        <v>33200</v>
+        <v>32000</v>
       </c>
       <c r="G48" s="3">
-        <v>32300</v>
+        <v>33400</v>
       </c>
       <c r="H48" s="3">
-        <v>32800</v>
+        <v>32600</v>
       </c>
       <c r="I48" s="3">
-        <v>36200</v>
+        <v>33100</v>
       </c>
       <c r="J48" s="3">
+        <v>36400</v>
+      </c>
+      <c r="K48" s="3">
         <v>37400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>38400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4100</v>
-      </c>
-      <c r="M48" s="3">
-        <v>4500</v>
       </c>
       <c r="N48" s="3">
         <v>4500</v>
       </c>
       <c r="O48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="P48" s="3">
         <v>4100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1500</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6900</v>
+        <v>600</v>
       </c>
       <c r="E49" s="3">
         <v>7000</v>
@@ -3001,31 +3112,31 @@
         <v>7100</v>
       </c>
       <c r="H49" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I49" s="3">
         <v>6900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>29800</v>
       </c>
       <c r="J49" s="3">
         <v>30000</v>
       </c>
       <c r="K49" s="3">
+        <v>30000</v>
+      </c>
+      <c r="L49" s="3">
         <v>29400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>28400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>21800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>21600</v>
-      </c>
-      <c r="P49" s="3">
-        <v>100</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
@@ -3036,8 +3147,8 @@
       <c r="S49" s="3">
         <v>100</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
+      <c r="T49" s="3">
+        <v>100</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6200</v>
+        <v>7500</v>
       </c>
       <c r="E52" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F52" s="3">
         <v>6900</v>
       </c>
-      <c r="F52" s="3">
-        <v>6400</v>
-      </c>
       <c r="G52" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H52" s="3">
         <v>6000</v>
       </c>
-      <c r="H52" s="3">
-        <v>9700</v>
-      </c>
       <c r="I52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J52" s="3">
         <v>9600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>151400</v>
+        <v>121500</v>
       </c>
       <c r="E54" s="3">
-        <v>164400</v>
+        <v>152600</v>
       </c>
       <c r="F54" s="3">
-        <v>165100</v>
+        <v>165700</v>
       </c>
       <c r="G54" s="3">
-        <v>167900</v>
+        <v>166400</v>
       </c>
       <c r="H54" s="3">
-        <v>162400</v>
+        <v>169200</v>
       </c>
       <c r="I54" s="3">
-        <v>196100</v>
+        <v>163700</v>
       </c>
       <c r="J54" s="3">
+        <v>197600</v>
+      </c>
+      <c r="K54" s="3">
         <v>194600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>190300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>141800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>140000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>133600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>137900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>117600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>144700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>49100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>53500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,44 +3596,47 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
-      </c>
-      <c r="E58" s="3">
-        <v>300</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
       </c>
       <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2300</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
@@ -3527,132 +3661,141 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>35300</v>
+        <v>30800</v>
       </c>
       <c r="E59" s="3">
-        <v>38800</v>
+        <v>35600</v>
       </c>
       <c r="F59" s="3">
-        <v>35900</v>
+        <v>39100</v>
       </c>
       <c r="G59" s="3">
-        <v>38200</v>
+        <v>36200</v>
       </c>
       <c r="H59" s="3">
-        <v>33100</v>
+        <v>38500</v>
       </c>
       <c r="I59" s="3">
-        <v>41800</v>
+        <v>33400</v>
       </c>
       <c r="J59" s="3">
+        <v>42200</v>
+      </c>
+      <c r="K59" s="3">
         <v>30900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>37100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>29700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>18100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>25200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35500</v>
+        <v>31100</v>
       </c>
       <c r="E60" s="3">
-        <v>39100</v>
+        <v>35800</v>
       </c>
       <c r="F60" s="3">
-        <v>36200</v>
+        <v>39400</v>
       </c>
       <c r="G60" s="3">
-        <v>38400</v>
+        <v>36500</v>
       </c>
       <c r="H60" s="3">
-        <v>33400</v>
+        <v>38700</v>
       </c>
       <c r="I60" s="3">
-        <v>42100</v>
+        <v>33600</v>
       </c>
       <c r="J60" s="3">
+        <v>42400</v>
+      </c>
+      <c r="K60" s="3">
         <v>31700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>33800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>25000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>28300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>37100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>29700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>25200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,49 +3856,52 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14700</v>
+        <v>1600</v>
       </c>
       <c r="E62" s="3">
-        <v>21400</v>
+        <v>14800</v>
       </c>
       <c r="F62" s="3">
         <v>21600</v>
       </c>
       <c r="G62" s="3">
-        <v>22900</v>
+        <v>21800</v>
       </c>
       <c r="H62" s="3">
-        <v>23400</v>
+        <v>23100</v>
       </c>
       <c r="I62" s="3">
-        <v>26400</v>
+        <v>23600</v>
       </c>
       <c r="J62" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K62" s="3">
         <v>34700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>36700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1600</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1300</v>
       </c>
       <c r="O62" s="3">
         <v>1300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3">
+        <v>1300</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
@@ -3763,11 +3909,11 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59300</v>
+        <v>32700</v>
       </c>
       <c r="E66" s="3">
-        <v>60600</v>
+        <v>59700</v>
       </c>
       <c r="F66" s="3">
-        <v>57900</v>
+        <v>61000</v>
       </c>
       <c r="G66" s="3">
-        <v>61300</v>
+        <v>58300</v>
       </c>
       <c r="H66" s="3">
-        <v>63700</v>
+        <v>61800</v>
       </c>
       <c r="I66" s="3">
-        <v>68500</v>
+        <v>64200</v>
       </c>
       <c r="J66" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K66" s="3">
         <v>66400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>70500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>41600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26400</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4219,13 +4387,13 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
-        <v>24300</v>
+        <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>24300</v>
       </c>
       <c r="T70" s="3">
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="U70" s="3">
         <v>0</v>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,16 +4466,19 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-21700</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-21800</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
@@ -4312,11 +4486,11 @@
       <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="3">
-        <v>-17200</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-17400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -4324,41 +4498,44 @@
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>-100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1100</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
       <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
         <v>4100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-100</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>92200</v>
+        <v>88800</v>
       </c>
       <c r="E76" s="3">
-        <v>103900</v>
+        <v>92900</v>
       </c>
       <c r="F76" s="3">
-        <v>107300</v>
+        <v>104700</v>
       </c>
       <c r="G76" s="3">
-        <v>106600</v>
+        <v>108100</v>
       </c>
       <c r="H76" s="3">
-        <v>98800</v>
+        <v>107400</v>
       </c>
       <c r="I76" s="3">
-        <v>127600</v>
+        <v>99500</v>
       </c>
       <c r="J76" s="3">
+        <v>128600</v>
+      </c>
+      <c r="K76" s="3">
         <v>128200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>119800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>108400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>107400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>100700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>96300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>96700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>114000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2800</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,123 +4856,129 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
-        <v>-22500</v>
-      </c>
       <c r="I81" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="J81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1600</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>8</v>
       </c>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
@@ -763,25 +763,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>28200</v>
+        <v>26300</v>
       </c>
       <c r="E8" s="3">
-        <v>11100</v>
+        <v>10300</v>
       </c>
       <c r="F8" s="3">
-        <v>10700</v>
+        <v>10000</v>
       </c>
       <c r="G8" s="3">
-        <v>13200</v>
+        <v>12300</v>
       </c>
       <c r="H8" s="3">
-        <v>9300</v>
+        <v>8700</v>
       </c>
       <c r="I8" s="3">
-        <v>11200</v>
+        <v>10500</v>
       </c>
       <c r="J8" s="3">
-        <v>16300</v>
+        <v>15300</v>
       </c>
       <c r="K8" s="3">
         <v>20200</v>
@@ -828,25 +828,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17500</v>
+        <v>16400</v>
       </c>
       <c r="E9" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="F9" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="G9" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="H9" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="I9" s="3">
-        <v>7300</v>
+        <v>6800</v>
       </c>
       <c r="J9" s="3">
-        <v>8000</v>
+        <v>7400</v>
       </c>
       <c r="K9" s="3">
         <v>9100</v>
@@ -893,25 +893,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10600</v>
+        <v>9900</v>
       </c>
       <c r="E10" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="F10" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="G10" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="H10" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="I10" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="J10" s="3">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="K10" s="3">
         <v>11100</v>
@@ -1113,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8300</v>
+        <v>7700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>22900</v>
+        <v>21400</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1265,25 +1265,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>37000</v>
+        <v>34500</v>
       </c>
       <c r="E17" s="3">
-        <v>12400</v>
+        <v>11600</v>
       </c>
       <c r="F17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="G17" s="3">
         <v>12700</v>
       </c>
-      <c r="G17" s="3">
-        <v>13600</v>
-      </c>
       <c r="H17" s="3">
-        <v>11200</v>
+        <v>10500</v>
       </c>
       <c r="I17" s="3">
-        <v>37700</v>
+        <v>35300</v>
       </c>
       <c r="J17" s="3">
-        <v>14600</v>
+        <v>13700</v>
       </c>
       <c r="K17" s="3">
         <v>15700</v>
@@ -1330,25 +1330,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8800</v>
+        <v>-8200</v>
       </c>
       <c r="E18" s="3">
         <v>-1300</v>
       </c>
       <c r="F18" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G18" s="3">
         <v>-400</v>
       </c>
       <c r="H18" s="3">
-        <v>-2000</v>
+        <v>-1800</v>
       </c>
       <c r="I18" s="3">
-        <v>-26500</v>
+        <v>-24800</v>
       </c>
       <c r="J18" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K18" s="3">
         <v>4400</v>
@@ -1426,19 +1426,19 @@
         <v>500</v>
       </c>
       <c r="F20" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G20" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H20" s="3">
         <v>300</v>
       </c>
       <c r="I20" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J20" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
@@ -1615,25 +1615,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8000</v>
+        <v>-7500</v>
       </c>
       <c r="E23" s="3">
         <v>-800</v>
       </c>
       <c r="F23" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="G23" s="3">
         <v>900</v>
       </c>
       <c r="H23" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="I23" s="3">
-        <v>-25400</v>
+        <v>-23700</v>
       </c>
       <c r="J23" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="K23" s="3">
         <v>4600</v>
@@ -1695,10 +1695,10 @@
         <v>-100</v>
       </c>
       <c r="I24" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="J24" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K24" s="3">
         <v>1400</v>
@@ -1810,25 +1810,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8300</v>
+        <v>-7800</v>
       </c>
       <c r="E26" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F26" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="G26" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H26" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="I26" s="3">
-        <v>-22900</v>
+        <v>-21400</v>
       </c>
       <c r="J26" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K26" s="3">
         <v>3200</v>
@@ -1875,25 +1875,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-14000</v>
+        <v>-13100</v>
       </c>
       <c r="E27" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F27" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G27" s="3">
         <v>500</v>
       </c>
       <c r="H27" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="I27" s="3">
-        <v>-22700</v>
+        <v>-21200</v>
       </c>
       <c r="J27" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K27" s="3">
         <v>3000</v>
@@ -2206,19 +2206,19 @@
         <v>-500</v>
       </c>
       <c r="F32" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="G32" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="H32" s="3">
         <v>-300</v>
       </c>
       <c r="I32" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="J32" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
@@ -2265,25 +2265,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14000</v>
+        <v>-13100</v>
       </c>
       <c r="E33" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F33" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G33" s="3">
         <v>500</v>
       </c>
       <c r="H33" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="I33" s="3">
-        <v>-22700</v>
+        <v>-21200</v>
       </c>
       <c r="J33" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K33" s="3">
         <v>3000</v>
@@ -2395,25 +2395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14000</v>
+        <v>-13100</v>
       </c>
       <c r="E35" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F35" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G35" s="3">
         <v>500</v>
       </c>
       <c r="H35" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="I35" s="3">
-        <v>-22700</v>
+        <v>-21200</v>
       </c>
       <c r="J35" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K35" s="3">
         <v>3000</v>
@@ -2580,25 +2580,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>65900</v>
+        <v>61600</v>
       </c>
       <c r="E41" s="3">
-        <v>59700</v>
+        <v>55800</v>
       </c>
       <c r="F41" s="3">
-        <v>69300</v>
+        <v>64700</v>
       </c>
       <c r="G41" s="3">
-        <v>66700</v>
+        <v>62300</v>
       </c>
       <c r="H41" s="3">
-        <v>67900</v>
+        <v>63400</v>
       </c>
       <c r="I41" s="3">
-        <v>63800</v>
+        <v>59600</v>
       </c>
       <c r="J41" s="3">
-        <v>89100</v>
+        <v>83200</v>
       </c>
       <c r="K41" s="3">
         <v>80800</v>
@@ -2645,25 +2645,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>39100</v>
+        <v>36600</v>
       </c>
       <c r="E42" s="3">
-        <v>20100</v>
+        <v>18800</v>
       </c>
       <c r="F42" s="3">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="G42" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="H42" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I42" s="3">
-        <v>30300</v>
+        <v>28300</v>
       </c>
       <c r="J42" s="3">
-        <v>27900</v>
+        <v>26100</v>
       </c>
       <c r="K42" s="3">
         <v>33000</v>
@@ -2710,25 +2710,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F43" s="3">
-        <v>2100</v>
-      </c>
       <c r="G43" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I43" s="3">
         <v>2900</v>
       </c>
-      <c r="I43" s="3">
-        <v>3100</v>
-      </c>
       <c r="J43" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="K43" s="3">
         <v>4300</v>
@@ -2905,25 +2905,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>106900</v>
+        <v>99900</v>
       </c>
       <c r="E46" s="3">
-        <v>81500</v>
+        <v>76200</v>
       </c>
       <c r="F46" s="3">
-        <v>76500</v>
+        <v>71400</v>
       </c>
       <c r="G46" s="3">
-        <v>74700</v>
+        <v>69800</v>
       </c>
       <c r="H46" s="3">
-        <v>72300</v>
+        <v>67600</v>
       </c>
       <c r="I46" s="3">
-        <v>97200</v>
+        <v>90800</v>
       </c>
       <c r="J46" s="3">
-        <v>121200</v>
+        <v>113300</v>
       </c>
       <c r="K46" s="3">
         <v>118200</v>
@@ -2973,19 +2973,19 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>31600</v>
+        <v>29500</v>
       </c>
       <c r="F47" s="3">
-        <v>43200</v>
+        <v>40400</v>
       </c>
       <c r="G47" s="3">
-        <v>44700</v>
+        <v>41700</v>
       </c>
       <c r="H47" s="3">
-        <v>51100</v>
+        <v>47700</v>
       </c>
       <c r="I47" s="3">
-        <v>16700</v>
+        <v>15600</v>
       </c>
       <c r="J47" s="3">
         <v>200</v>
@@ -3035,25 +3035,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="E48" s="3">
-        <v>26300</v>
+        <v>24500</v>
       </c>
       <c r="F48" s="3">
-        <v>32000</v>
+        <v>29900</v>
       </c>
       <c r="G48" s="3">
-        <v>33400</v>
+        <v>31200</v>
       </c>
       <c r="H48" s="3">
-        <v>32600</v>
+        <v>30400</v>
       </c>
       <c r="I48" s="3">
-        <v>33100</v>
+        <v>30900</v>
       </c>
       <c r="J48" s="3">
-        <v>36400</v>
+        <v>34000</v>
       </c>
       <c r="K48" s="3">
         <v>37400</v>
@@ -3103,22 +3103,22 @@
         <v>600</v>
       </c>
       <c r="E49" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="F49" s="3">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="G49" s="3">
-        <v>7100</v>
+        <v>6600</v>
       </c>
       <c r="H49" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="I49" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="J49" s="3">
-        <v>30000</v>
+        <v>28100</v>
       </c>
       <c r="K49" s="3">
         <v>30000</v>
@@ -3295,25 +3295,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="E52" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="F52" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="G52" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="H52" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="I52" s="3">
-        <v>9800</v>
+        <v>9100</v>
       </c>
       <c r="J52" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="K52" s="3">
         <v>8800</v>
@@ -3425,25 +3425,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>121500</v>
+        <v>113500</v>
       </c>
       <c r="E54" s="3">
-        <v>152600</v>
+        <v>142500</v>
       </c>
       <c r="F54" s="3">
-        <v>165700</v>
+        <v>154800</v>
       </c>
       <c r="G54" s="3">
-        <v>166400</v>
+        <v>155400</v>
       </c>
       <c r="H54" s="3">
-        <v>169200</v>
+        <v>158000</v>
       </c>
       <c r="I54" s="3">
-        <v>163700</v>
+        <v>152900</v>
       </c>
       <c r="J54" s="3">
-        <v>197600</v>
+        <v>184600</v>
       </c>
       <c r="K54" s="3">
         <v>194600</v>
@@ -3670,25 +3670,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30800</v>
+        <v>28800</v>
       </c>
       <c r="E59" s="3">
-        <v>35600</v>
+        <v>33200</v>
       </c>
       <c r="F59" s="3">
-        <v>39100</v>
+        <v>36500</v>
       </c>
       <c r="G59" s="3">
-        <v>36200</v>
+        <v>33800</v>
       </c>
       <c r="H59" s="3">
-        <v>38500</v>
+        <v>36000</v>
       </c>
       <c r="I59" s="3">
-        <v>33400</v>
+        <v>31200</v>
       </c>
       <c r="J59" s="3">
-        <v>42200</v>
+        <v>39400</v>
       </c>
       <c r="K59" s="3">
         <v>30900</v>
@@ -3735,25 +3735,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31100</v>
+        <v>29100</v>
       </c>
       <c r="E60" s="3">
-        <v>35800</v>
+        <v>33400</v>
       </c>
       <c r="F60" s="3">
-        <v>39400</v>
+        <v>36800</v>
       </c>
       <c r="G60" s="3">
-        <v>36500</v>
+        <v>34100</v>
       </c>
       <c r="H60" s="3">
-        <v>38700</v>
+        <v>36100</v>
       </c>
       <c r="I60" s="3">
-        <v>33600</v>
+        <v>31400</v>
       </c>
       <c r="J60" s="3">
-        <v>42400</v>
+        <v>39600</v>
       </c>
       <c r="K60" s="3">
         <v>31700</v>
@@ -3865,25 +3865,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E62" s="3">
-        <v>14800</v>
+        <v>13800</v>
       </c>
       <c r="F62" s="3">
+        <v>20200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>20400</v>
+      </c>
+      <c r="H62" s="3">
         <v>21600</v>
       </c>
-      <c r="G62" s="3">
-        <v>21800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>23100</v>
-      </c>
       <c r="I62" s="3">
-        <v>23600</v>
+        <v>22100</v>
       </c>
       <c r="J62" s="3">
-        <v>26600</v>
+        <v>24800</v>
       </c>
       <c r="K62" s="3">
         <v>34700</v>
@@ -4125,25 +4125,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32700</v>
+        <v>30500</v>
       </c>
       <c r="E66" s="3">
-        <v>59700</v>
+        <v>55800</v>
       </c>
       <c r="F66" s="3">
-        <v>61000</v>
+        <v>57000</v>
       </c>
       <c r="G66" s="3">
-        <v>58300</v>
+        <v>54500</v>
       </c>
       <c r="H66" s="3">
-        <v>61800</v>
+        <v>57700</v>
       </c>
       <c r="I66" s="3">
-        <v>64200</v>
+        <v>60000</v>
       </c>
       <c r="J66" s="3">
-        <v>69000</v>
+        <v>64500</v>
       </c>
       <c r="K66" s="3">
         <v>66400</v>
@@ -4478,7 +4478,7 @@
         <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>-21800</v>
+        <v>-20400</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
@@ -4490,7 +4490,7 @@
         <v>8</v>
       </c>
       <c r="I72" s="3">
-        <v>-17400</v>
+        <v>-16200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -4735,25 +4735,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>88800</v>
+        <v>83000</v>
       </c>
       <c r="E76" s="3">
+        <v>86700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>97800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>101000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>100300</v>
+      </c>
+      <c r="I76" s="3">
         <v>92900</v>
       </c>
-      <c r="F76" s="3">
-        <v>104700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>108100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>107400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>99500</v>
-      </c>
       <c r="J76" s="3">
-        <v>128600</v>
+        <v>120100</v>
       </c>
       <c r="K76" s="3">
         <v>128200</v>
@@ -4935,25 +4935,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14000</v>
+        <v>-13100</v>
       </c>
       <c r="E81" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F81" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G81" s="3">
         <v>500</v>
       </c>
       <c r="H81" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="I81" s="3">
-        <v>-22700</v>
+        <v>-21200</v>
       </c>
       <c r="J81" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K81" s="3">
         <v>3000</v>

--- a/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>FEDU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26300</v>
+        <v>10500</v>
       </c>
       <c r="E8" s="3">
+        <v>26100</v>
+      </c>
+      <c r="F8" s="3">
         <v>10300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>9900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K8" s="3">
+        <v>15300</v>
+      </c>
+      <c r="L8" s="3">
+        <v>20200</v>
+      </c>
+      <c r="M8" s="3">
+        <v>13100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>9800</v>
+      </c>
+      <c r="O8" s="3">
+        <v>13200</v>
+      </c>
+      <c r="P8" s="3">
+        <v>13100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>12400</v>
+      </c>
+      <c r="R8" s="3">
         <v>10000</v>
       </c>
-      <c r="G8" s="3">
-        <v>12300</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="S8" s="3">
+        <v>12900</v>
+      </c>
+      <c r="T8" s="3">
+        <v>11500</v>
+      </c>
+      <c r="U8" s="3">
+        <v>10200</v>
+      </c>
+      <c r="V8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="W8" s="3">
         <v>8700</v>
       </c>
-      <c r="I8" s="3">
-        <v>10500</v>
-      </c>
-      <c r="J8" s="3">
-        <v>15300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>20200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>13100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>9800</v>
-      </c>
-      <c r="N8" s="3">
-        <v>13200</v>
-      </c>
-      <c r="O8" s="3">
-        <v>13100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>12400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>10000</v>
-      </c>
-      <c r="R8" s="3">
-        <v>12900</v>
-      </c>
-      <c r="S8" s="3">
-        <v>11500</v>
-      </c>
-      <c r="T8" s="3">
-        <v>10200</v>
-      </c>
-      <c r="U8" s="3">
-        <v>7000</v>
-      </c>
-      <c r="V8" s="3">
-        <v>8700</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16400</v>
+        <v>5600</v>
       </c>
       <c r="E9" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G9" s="3">
         <v>6200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="L9" s="3">
+        <v>9100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="N9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O9" s="3">
         <v>6300</v>
       </c>
-      <c r="G9" s="3">
-        <v>7100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>5300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>6800</v>
-      </c>
-      <c r="J9" s="3">
-        <v>7400</v>
-      </c>
-      <c r="K9" s="3">
-        <v>9100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>7100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>7000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>6300</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3000</v>
-      </c>
-      <c r="V9" s="3">
-        <v>3400</v>
       </c>
       <c r="W9" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9900</v>
+        <v>4800</v>
       </c>
       <c r="E10" s="3">
-        <v>4200</v>
+        <v>9800</v>
       </c>
       <c r="F10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G10" s="3">
         <v>3700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3300</v>
       </c>
-      <c r="I10" s="3">
-        <v>3700</v>
-      </c>
       <c r="J10" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K10" s="3">
         <v>7800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,19 +1124,22 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
         <v>7700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1127,11 +1147,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>21400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>21200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1148,8 +1168,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1164,16 +1184,19 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,58 +1285,59 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>34500</v>
+        <v>11400</v>
       </c>
       <c r="E17" s="3">
-        <v>11600</v>
+        <v>34200</v>
       </c>
       <c r="F17" s="3">
-        <v>11800</v>
+        <v>11500</v>
       </c>
       <c r="G17" s="3">
-        <v>12700</v>
+        <v>11700</v>
       </c>
       <c r="H17" s="3">
-        <v>10500</v>
+        <v>12600</v>
       </c>
       <c r="I17" s="3">
-        <v>35300</v>
+        <v>10400</v>
       </c>
       <c r="J17" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K17" s="3">
         <v>13700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>9700</v>
       </c>
       <c r="R17" s="3">
         <v>9700</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>8</v>
+      <c r="S17" s="3">
+        <v>9700</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>8</v>
@@ -1324,59 +1351,62 @@
       <c r="W17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8200</v>
+        <v>-900</v>
       </c>
       <c r="E18" s="3">
-        <v>-1300</v>
+        <v>-8100</v>
       </c>
       <c r="F18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
-        <v>-24800</v>
-      </c>
       <c r="J18" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,58 +1447,59 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>800</v>
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F20" s="3">
         <v>500</v>
       </c>
       <c r="G20" s="3">
+        <v>500</v>
+      </c>
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1000</v>
       </c>
       <c r="J20" s="3">
         <v>1000</v>
       </c>
       <c r="K20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>200</v>
       </c>
       <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>8</v>
+      <c r="S20" s="3">
+        <v>200</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>8</v>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7500</v>
+        <v>-1400</v>
       </c>
       <c r="E23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
-        <v>-23700</v>
-      </c>
       <c r="J23" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="K23" s="3">
         <v>2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1000</v>
-      </c>
-      <c r="V23" s="3">
-        <v>3000</v>
       </c>
       <c r="W23" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-500</v>
-      </c>
-      <c r="V24" s="3">
-        <v>-1600</v>
       </c>
       <c r="W24" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,59 +1853,62 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7800</v>
+        <v>-4300</v>
       </c>
       <c r="E26" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-21400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>600</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1600</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1869,59 +1921,62 @@
       <c r="W26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13100</v>
+        <v>-3600</v>
       </c>
       <c r="E27" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
-        <v>500</v>
-      </c>
       <c r="H27" s="3">
+        <v>400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
-        <v>-21200</v>
-      </c>
       <c r="J27" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="K27" s="3">
         <v>1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1600</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,58 +2261,61 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-800</v>
+        <v>400</v>
       </c>
       <c r="E32" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="F32" s="3">
         <v>-500</v>
       </c>
       <c r="G32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1000</v>
       </c>
       <c r="J32" s="3">
         <v>-1000</v>
       </c>
       <c r="K32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-200</v>
       </c>
       <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>8</v>
+      <c r="S32" s="3">
+        <v>-200</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>8</v>
@@ -2259,59 +2329,62 @@
       <c r="W32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13100</v>
+        <v>-3600</v>
       </c>
       <c r="E33" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
-        <v>500</v>
-      </c>
       <c r="H33" s="3">
+        <v>400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
-        <v>-21200</v>
-      </c>
       <c r="J33" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1600</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,59 +2465,62 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13100</v>
+        <v>-3600</v>
       </c>
       <c r="E35" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
-        <v>500</v>
-      </c>
       <c r="H35" s="3">
+        <v>400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
-        <v>-21200</v>
-      </c>
       <c r="J35" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1600</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,112 +2660,116 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>61600</v>
+        <v>38300</v>
       </c>
       <c r="E41" s="3">
-        <v>55800</v>
+        <v>61000</v>
       </c>
       <c r="F41" s="3">
-        <v>64700</v>
+        <v>55300</v>
       </c>
       <c r="G41" s="3">
-        <v>62300</v>
+        <v>64100</v>
       </c>
       <c r="H41" s="3">
-        <v>63400</v>
+        <v>61800</v>
       </c>
       <c r="I41" s="3">
-        <v>59600</v>
+        <v>62800</v>
       </c>
       <c r="J41" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K41" s="3">
         <v>83200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>80800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>78700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>66900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>72200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>78500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>84000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>86600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>137300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>43700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>42100</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>36600</v>
+        <v>35900</v>
       </c>
       <c r="E42" s="3">
-        <v>18800</v>
+        <v>36200</v>
       </c>
       <c r="F42" s="3">
+        <v>18600</v>
+      </c>
+      <c r="G42" s="3">
         <v>4800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1500</v>
       </c>
-      <c r="I42" s="3">
-        <v>28300</v>
-      </c>
       <c r="J42" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K42" s="3">
         <v>26100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>33000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>31300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4900</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2695,8 +2785,8 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2704,73 +2794,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
-        <v>2500</v>
-      </c>
       <c r="H43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I43" s="3">
         <v>2700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8500</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2878,18 +2977,18 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3">
         <v>1100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2899,96 +2998,102 @@
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>99900</v>
+        <v>76800</v>
       </c>
       <c r="E46" s="3">
-        <v>76200</v>
+        <v>99000</v>
       </c>
       <c r="F46" s="3">
-        <v>71400</v>
+        <v>75500</v>
       </c>
       <c r="G46" s="3">
-        <v>69800</v>
+        <v>70800</v>
       </c>
       <c r="H46" s="3">
-        <v>67600</v>
+        <v>69200</v>
       </c>
       <c r="I46" s="3">
-        <v>90800</v>
+        <v>67000</v>
       </c>
       <c r="J46" s="3">
+        <v>90000</v>
+      </c>
+      <c r="K46" s="3">
         <v>113300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>118200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>113900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>75400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>80500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>82000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>87600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>88300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>139800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>44900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>50600</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E47" s="3">
-        <v>29500</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>40400</v>
+        <v>29200</v>
       </c>
       <c r="G47" s="3">
-        <v>41700</v>
+        <v>40000</v>
       </c>
       <c r="H47" s="3">
-        <v>47700</v>
+        <v>41400</v>
       </c>
       <c r="I47" s="3">
-        <v>15600</v>
+        <v>47300</v>
       </c>
       <c r="J47" s="3">
-        <v>200</v>
+        <v>15400</v>
       </c>
       <c r="K47" s="3">
         <v>200</v>
@@ -2997,31 +3102,31 @@
         <v>200</v>
       </c>
       <c r="M47" s="3">
+        <v>200</v>
+      </c>
+      <c r="N47" s="3">
         <v>24800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>23000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>22400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>23500</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
@@ -3029,117 +3134,123 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E48" s="3">
         <v>6000</v>
       </c>
-      <c r="E48" s="3">
-        <v>24500</v>
-      </c>
       <c r="F48" s="3">
-        <v>29900</v>
+        <v>24300</v>
       </c>
       <c r="G48" s="3">
-        <v>31200</v>
+        <v>29700</v>
       </c>
       <c r="H48" s="3">
-        <v>30400</v>
+        <v>31000</v>
       </c>
       <c r="I48" s="3">
-        <v>30900</v>
+        <v>30200</v>
       </c>
       <c r="J48" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K48" s="3">
         <v>34000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>37400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>38400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>4500</v>
       </c>
       <c r="O48" s="3">
         <v>4500</v>
       </c>
       <c r="P48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q48" s="3">
         <v>4100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1500</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>500</v>
+      </c>
+      <c r="E49" s="3">
         <v>600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G49" s="3">
         <v>6500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I49" s="3">
         <v>6600</v>
       </c>
-      <c r="G49" s="3">
-        <v>6600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>6700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>6500</v>
-      </c>
       <c r="J49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K49" s="3">
         <v>28100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>28400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>21800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>21600</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>100</v>
       </c>
       <c r="R49" s="3">
         <v>100</v>
@@ -3150,8 +3261,8 @@
       <c r="T49" s="3">
         <v>100</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
+      <c r="U49" s="3">
+        <v>100</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7000</v>
+        <v>2200</v>
       </c>
       <c r="E52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F52" s="3">
         <v>5800</v>
       </c>
-      <c r="F52" s="3">
-        <v>6500</v>
-      </c>
       <c r="G52" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="H52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I52" s="3">
         <v>5600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>9100</v>
       </c>
       <c r="J52" s="3">
         <v>9000</v>
       </c>
       <c r="K52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="L52" s="3">
         <v>8800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1200</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>113500</v>
+        <v>88000</v>
       </c>
       <c r="E54" s="3">
-        <v>142500</v>
+        <v>112500</v>
       </c>
       <c r="F54" s="3">
-        <v>154800</v>
+        <v>141200</v>
       </c>
       <c r="G54" s="3">
-        <v>155400</v>
+        <v>153400</v>
       </c>
       <c r="H54" s="3">
-        <v>158000</v>
+        <v>154000</v>
       </c>
       <c r="I54" s="3">
-        <v>152900</v>
+        <v>156600</v>
       </c>
       <c r="J54" s="3">
+        <v>151500</v>
+      </c>
+      <c r="K54" s="3">
         <v>184600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>194600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>190300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>141800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>140000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>133600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>137900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>117600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>144700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>49100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>53500</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,47 +3730,50 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
       </c>
       <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
@@ -3664,138 +3798,147 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28800</v>
+        <v>13500</v>
       </c>
       <c r="E59" s="3">
-        <v>33200</v>
+        <v>28500</v>
       </c>
       <c r="F59" s="3">
-        <v>36500</v>
+        <v>32900</v>
       </c>
       <c r="G59" s="3">
-        <v>33800</v>
+        <v>36200</v>
       </c>
       <c r="H59" s="3">
-        <v>36000</v>
+        <v>33500</v>
       </c>
       <c r="I59" s="3">
-        <v>31200</v>
+        <v>35700</v>
       </c>
       <c r="J59" s="3">
+        <v>30900</v>
+      </c>
+      <c r="K59" s="3">
         <v>39400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>28300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>37100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>29700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>18100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>25200</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29100</v>
+        <v>13700</v>
       </c>
       <c r="E60" s="3">
-        <v>33400</v>
+        <v>28800</v>
       </c>
       <c r="F60" s="3">
-        <v>36800</v>
+        <v>33100</v>
       </c>
       <c r="G60" s="3">
-        <v>34100</v>
+        <v>36500</v>
       </c>
       <c r="H60" s="3">
-        <v>36100</v>
+        <v>33800</v>
       </c>
       <c r="I60" s="3">
-        <v>31400</v>
+        <v>35800</v>
       </c>
       <c r="J60" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K60" s="3">
         <v>39600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>33800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>28300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>37100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>29700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>18100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>25200</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,52 +4002,55 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
-        <v>13800</v>
+        <v>1400</v>
       </c>
       <c r="F62" s="3">
+        <v>13700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H62" s="3">
         <v>20200</v>
       </c>
-      <c r="G62" s="3">
-        <v>20400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>21600</v>
-      </c>
       <c r="I62" s="3">
-        <v>22100</v>
+        <v>21400</v>
       </c>
       <c r="J62" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K62" s="3">
         <v>24800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>36700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1300</v>
       </c>
       <c r="P62" s="3">
         <v>1300</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="Q62" s="3">
+        <v>1300</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
@@ -3912,11 +4058,11 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30500</v>
+        <v>22900</v>
       </c>
       <c r="E66" s="3">
-        <v>55800</v>
+        <v>30200</v>
       </c>
       <c r="F66" s="3">
-        <v>57000</v>
+        <v>55300</v>
       </c>
       <c r="G66" s="3">
-        <v>54500</v>
+        <v>56500</v>
       </c>
       <c r="H66" s="3">
-        <v>57700</v>
+        <v>54000</v>
       </c>
       <c r="I66" s="3">
-        <v>60000</v>
+        <v>57200</v>
       </c>
       <c r="J66" s="3">
+        <v>59400</v>
+      </c>
+      <c r="K66" s="3">
         <v>64500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>66400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>70500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>41600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26400</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4390,13 +4558,13 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
-        <v>24300</v>
+        <v>0</v>
       </c>
       <c r="T70" s="3">
         <v>24300</v>
       </c>
       <c r="U70" s="3">
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="V70" s="3">
         <v>0</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,19 +4640,22 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-20400</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-20200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
@@ -4489,11 +4663,11 @@
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="3">
-        <v>-16200</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-16100</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -4501,41 +4675,44 @@
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>-100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1100</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
       <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
         <v>4100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-100</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>83000</v>
+        <v>65100</v>
       </c>
       <c r="E76" s="3">
-        <v>86700</v>
+        <v>82200</v>
       </c>
       <c r="F76" s="3">
-        <v>97800</v>
+        <v>86000</v>
       </c>
       <c r="G76" s="3">
-        <v>101000</v>
+        <v>96900</v>
       </c>
       <c r="H76" s="3">
-        <v>100300</v>
+        <v>100100</v>
       </c>
       <c r="I76" s="3">
-        <v>92900</v>
+        <v>99400</v>
       </c>
       <c r="J76" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K76" s="3">
         <v>120100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>128200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>119800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>108400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>107400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>100700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>96300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>96700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>114000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2800</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,129 +5048,135 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13100</v>
+        <v>-3600</v>
       </c>
       <c r="E81" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
-        <v>500</v>
-      </c>
       <c r="H81" s="3">
+        <v>400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
-        <v>-21200</v>
-      </c>
       <c r="J81" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1600</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>8</v>
       </c>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="E8" s="3">
-        <v>26100</v>
+        <v>24900</v>
       </c>
       <c r="F8" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="G8" s="3">
+        <v>9400</v>
+      </c>
+      <c r="H8" s="3">
+        <v>11700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J8" s="3">
         <v>9900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>12200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>8600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>10400</v>
       </c>
       <c r="K8" s="3">
         <v>15300</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="E9" s="3">
-        <v>16200</v>
+        <v>15500</v>
       </c>
       <c r="F9" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="G9" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="H9" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="I9" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="J9" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="K9" s="3">
         <v>7400</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="E10" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="F10" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="G10" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H10" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="I10" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="J10" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="K10" s="3">
         <v>7800</v>
@@ -1136,7 +1136,7 @@
         <v>400</v>
       </c>
       <c r="E14" s="3">
-        <v>7700</v>
+        <v>7300</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>21200</v>
+        <v>20200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="E17" s="3">
-        <v>34200</v>
+        <v>32600</v>
       </c>
       <c r="F17" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="G17" s="3">
-        <v>11700</v>
+        <v>11200</v>
       </c>
       <c r="H17" s="3">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="I17" s="3">
-        <v>10400</v>
+        <v>9900</v>
       </c>
       <c r="J17" s="3">
-        <v>34900</v>
+        <v>33300</v>
       </c>
       <c r="K17" s="3">
         <v>13700</v>
@@ -1363,22 +1363,22 @@
         <v>-900</v>
       </c>
       <c r="E18" s="3">
-        <v>-8100</v>
+        <v>-7800</v>
       </c>
       <c r="F18" s="3">
         <v>-1200</v>
       </c>
       <c r="G18" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
       <c r="I18" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J18" s="3">
-        <v>-24600</v>
+        <v>-23400</v>
       </c>
       <c r="K18" s="3">
         <v>1600</v>
@@ -1466,10 +1466,10 @@
         <v>500</v>
       </c>
       <c r="H20" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I20" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>1000</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="E23" s="3">
-        <v>-7400</v>
+        <v>-7000</v>
       </c>
       <c r="F23" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G23" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="H23" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I23" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J23" s="3">
-        <v>-23500</v>
+        <v>-22400</v>
       </c>
       <c r="K23" s="3">
         <v>2600</v>
@@ -1726,7 +1726,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
@@ -1738,13 +1738,13 @@
         <v>-200</v>
       </c>
       <c r="H24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
       </c>
       <c r="J24" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="K24" s="3">
         <v>900</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="E26" s="3">
-        <v>-7700</v>
+        <v>-7300</v>
       </c>
       <c r="F26" s="3">
         <v>-1400</v>
       </c>
       <c r="G26" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="H26" s="3">
         <v>600</v>
       </c>
       <c r="I26" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="J26" s="3">
-        <v>-21200</v>
+        <v>-20200</v>
       </c>
       <c r="K26" s="3">
         <v>1700</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="E27" s="3">
-        <v>-13000</v>
+        <v>-12400</v>
       </c>
       <c r="F27" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="G27" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="H27" s="3">
         <v>400</v>
       </c>
       <c r="I27" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J27" s="3">
-        <v>-21000</v>
+        <v>-20000</v>
       </c>
       <c r="K27" s="3">
         <v>1700</v>
@@ -2282,10 +2282,10 @@
         <v>-500</v>
       </c>
       <c r="H32" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="I32" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-1000</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="E33" s="3">
-        <v>-13000</v>
+        <v>-12400</v>
       </c>
       <c r="F33" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="G33" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="H33" s="3">
         <v>400</v>
       </c>
       <c r="I33" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J33" s="3">
-        <v>-21000</v>
+        <v>-20000</v>
       </c>
       <c r="K33" s="3">
         <v>1700</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="E35" s="3">
-        <v>-13000</v>
+        <v>-12400</v>
       </c>
       <c r="F35" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="G35" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="H35" s="3">
         <v>400</v>
       </c>
       <c r="I35" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J35" s="3">
-        <v>-21000</v>
+        <v>-20000</v>
       </c>
       <c r="K35" s="3">
         <v>1700</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>38300</v>
+        <v>36500</v>
       </c>
       <c r="E41" s="3">
-        <v>61000</v>
+        <v>58200</v>
       </c>
       <c r="F41" s="3">
-        <v>55300</v>
+        <v>52700</v>
       </c>
       <c r="G41" s="3">
-        <v>64100</v>
+        <v>61100</v>
       </c>
       <c r="H41" s="3">
-        <v>61800</v>
+        <v>58900</v>
       </c>
       <c r="I41" s="3">
-        <v>62800</v>
+        <v>59900</v>
       </c>
       <c r="J41" s="3">
-        <v>59100</v>
+        <v>56300</v>
       </c>
       <c r="K41" s="3">
         <v>83200</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35900</v>
+        <v>34200</v>
       </c>
       <c r="E42" s="3">
-        <v>36200</v>
+        <v>34500</v>
       </c>
       <c r="F42" s="3">
-        <v>18600</v>
+        <v>17800</v>
       </c>
       <c r="G42" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="H42" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="I42" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J42" s="3">
-        <v>28000</v>
+        <v>26700</v>
       </c>
       <c r="K42" s="3">
         <v>26100</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="E43" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F43" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G43" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H43" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J43" s="3">
         <v>2700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2900</v>
       </c>
       <c r="K43" s="3">
         <v>4000</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>76800</v>
+        <v>73200</v>
       </c>
       <c r="E46" s="3">
-        <v>99000</v>
+        <v>94300</v>
       </c>
       <c r="F46" s="3">
-        <v>75500</v>
+        <v>71900</v>
       </c>
       <c r="G46" s="3">
-        <v>70800</v>
+        <v>67500</v>
       </c>
       <c r="H46" s="3">
-        <v>69200</v>
+        <v>65900</v>
       </c>
       <c r="I46" s="3">
-        <v>67000</v>
+        <v>63800</v>
       </c>
       <c r="J46" s="3">
-        <v>90000</v>
+        <v>85800</v>
       </c>
       <c r="K46" s="3">
         <v>113300</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>29200</v>
+        <v>27900</v>
       </c>
       <c r="G47" s="3">
-        <v>40000</v>
+        <v>38100</v>
       </c>
       <c r="H47" s="3">
-        <v>41400</v>
+        <v>39400</v>
       </c>
       <c r="I47" s="3">
-        <v>47300</v>
+        <v>45100</v>
       </c>
       <c r="J47" s="3">
-        <v>15400</v>
+        <v>14700</v>
       </c>
       <c r="K47" s="3">
         <v>200</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="E48" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="F48" s="3">
-        <v>24300</v>
+        <v>23200</v>
       </c>
       <c r="G48" s="3">
-        <v>29700</v>
+        <v>28300</v>
       </c>
       <c r="H48" s="3">
-        <v>31000</v>
+        <v>29500</v>
       </c>
       <c r="I48" s="3">
-        <v>30200</v>
+        <v>28800</v>
       </c>
       <c r="J48" s="3">
-        <v>30600</v>
+        <v>29200</v>
       </c>
       <c r="K48" s="3">
         <v>34000</v>
@@ -3217,19 +3217,19 @@
         <v>600</v>
       </c>
       <c r="F49" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="G49" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="H49" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="I49" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="J49" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="K49" s="3">
         <v>28100</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E52" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="F52" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G52" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="H52" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="I52" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="J52" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="K52" s="3">
         <v>9000</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>88000</v>
+        <v>83900</v>
       </c>
       <c r="E54" s="3">
-        <v>112500</v>
+        <v>107200</v>
       </c>
       <c r="F54" s="3">
-        <v>141200</v>
+        <v>134600</v>
       </c>
       <c r="G54" s="3">
-        <v>153400</v>
+        <v>146200</v>
       </c>
       <c r="H54" s="3">
-        <v>154000</v>
+        <v>146800</v>
       </c>
       <c r="I54" s="3">
-        <v>156600</v>
+        <v>149300</v>
       </c>
       <c r="J54" s="3">
-        <v>151500</v>
+        <v>144400</v>
       </c>
       <c r="K54" s="3">
         <v>184600</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13500</v>
+        <v>12900</v>
       </c>
       <c r="E59" s="3">
-        <v>28500</v>
+        <v>27200</v>
       </c>
       <c r="F59" s="3">
-        <v>32900</v>
+        <v>31400</v>
       </c>
       <c r="G59" s="3">
-        <v>36200</v>
+        <v>34500</v>
       </c>
       <c r="H59" s="3">
-        <v>33500</v>
+        <v>31900</v>
       </c>
       <c r="I59" s="3">
-        <v>35700</v>
+        <v>34000</v>
       </c>
       <c r="J59" s="3">
-        <v>30900</v>
+        <v>29500</v>
       </c>
       <c r="K59" s="3">
         <v>39400</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13700</v>
+        <v>13000</v>
       </c>
       <c r="E60" s="3">
-        <v>28800</v>
+        <v>27500</v>
       </c>
       <c r="F60" s="3">
-        <v>33100</v>
+        <v>31600</v>
       </c>
       <c r="G60" s="3">
-        <v>36500</v>
+        <v>34800</v>
       </c>
       <c r="H60" s="3">
-        <v>33800</v>
+        <v>32200</v>
       </c>
       <c r="I60" s="3">
-        <v>35800</v>
+        <v>34100</v>
       </c>
       <c r="J60" s="3">
-        <v>31100</v>
+        <v>29700</v>
       </c>
       <c r="K60" s="3">
         <v>39600</v>
@@ -4017,19 +4017,19 @@
         <v>1400</v>
       </c>
       <c r="F62" s="3">
-        <v>13700</v>
+        <v>13100</v>
       </c>
       <c r="G62" s="3">
-        <v>20000</v>
+        <v>19100</v>
       </c>
       <c r="H62" s="3">
-        <v>20200</v>
+        <v>19200</v>
       </c>
       <c r="I62" s="3">
-        <v>21400</v>
+        <v>20400</v>
       </c>
       <c r="J62" s="3">
-        <v>21900</v>
+        <v>20800</v>
       </c>
       <c r="K62" s="3">
         <v>24800</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22900</v>
+        <v>21800</v>
       </c>
       <c r="E66" s="3">
-        <v>30200</v>
+        <v>28800</v>
       </c>
       <c r="F66" s="3">
-        <v>55300</v>
+        <v>52700</v>
       </c>
       <c r="G66" s="3">
-        <v>56500</v>
+        <v>53900</v>
       </c>
       <c r="H66" s="3">
-        <v>54000</v>
+        <v>51400</v>
       </c>
       <c r="I66" s="3">
-        <v>57200</v>
+        <v>54500</v>
       </c>
       <c r="J66" s="3">
-        <v>59400</v>
+        <v>56600</v>
       </c>
       <c r="K66" s="3">
         <v>64500</v>
@@ -4649,13 +4649,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-36900</v>
+        <v>-35200</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F72" s="3">
-        <v>-20200</v>
+        <v>-19200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
@@ -4667,7 +4667,7 @@
         <v>8</v>
       </c>
       <c r="J72" s="3">
-        <v>-16100</v>
+        <v>-15300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>65100</v>
+        <v>62100</v>
       </c>
       <c r="E76" s="3">
-        <v>82200</v>
+        <v>78400</v>
       </c>
       <c r="F76" s="3">
-        <v>86000</v>
+        <v>81900</v>
       </c>
       <c r="G76" s="3">
-        <v>96900</v>
+        <v>92300</v>
       </c>
       <c r="H76" s="3">
-        <v>100100</v>
+        <v>95400</v>
       </c>
       <c r="I76" s="3">
-        <v>99400</v>
+        <v>94700</v>
       </c>
       <c r="J76" s="3">
-        <v>92100</v>
+        <v>87800</v>
       </c>
       <c r="K76" s="3">
         <v>120100</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="E81" s="3">
-        <v>-13000</v>
+        <v>-12400</v>
       </c>
       <c r="F81" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="G81" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="H81" s="3">
         <v>400</v>
       </c>
       <c r="I81" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J81" s="3">
-        <v>-21000</v>
+        <v>-20000</v>
       </c>
       <c r="K81" s="3">
         <v>1700</v>

--- a/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="E8" s="3">
-        <v>24900</v>
+        <v>25700</v>
       </c>
       <c r="F8" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="G8" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="H8" s="3">
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="I8" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="J8" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="K8" s="3">
         <v>15300</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="E9" s="3">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="F9" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="G9" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="H9" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="I9" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="J9" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="K9" s="3">
         <v>7400</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="E10" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="F10" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="G10" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H10" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I10" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J10" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K10" s="3">
         <v>7800</v>
@@ -1136,7 +1136,7 @@
         <v>400</v>
       </c>
       <c r="E14" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>20200</v>
+        <v>20900</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="E17" s="3">
-        <v>32600</v>
+        <v>33700</v>
       </c>
       <c r="F17" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="G17" s="3">
-        <v>11200</v>
+        <v>11500</v>
       </c>
       <c r="H17" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="I17" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="J17" s="3">
-        <v>33300</v>
+        <v>34400</v>
       </c>
       <c r="K17" s="3">
         <v>13700</v>
@@ -1363,7 +1363,7 @@
         <v>-900</v>
       </c>
       <c r="E18" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="F18" s="3">
         <v>-1200</v>
@@ -1375,10 +1375,10 @@
         <v>-400</v>
       </c>
       <c r="I18" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="J18" s="3">
-        <v>-23400</v>
+        <v>-24100</v>
       </c>
       <c r="K18" s="3">
         <v>1600</v>
@@ -1658,10 +1658,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="E23" s="3">
-        <v>-7000</v>
+        <v>-7300</v>
       </c>
       <c r="F23" s="3">
         <v>-700</v>
@@ -1670,13 +1670,13 @@
         <v>-1300</v>
       </c>
       <c r="H23" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I23" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J23" s="3">
-        <v>-22400</v>
+        <v>-23100</v>
       </c>
       <c r="K23" s="3">
         <v>2600</v>
@@ -1726,7 +1726,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
@@ -1738,13 +1738,13 @@
         <v>-200</v>
       </c>
       <c r="H24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
       </c>
       <c r="J24" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="K24" s="3">
         <v>900</v>
@@ -1862,10 +1862,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="E26" s="3">
-        <v>-7300</v>
+        <v>-7600</v>
       </c>
       <c r="F26" s="3">
         <v>-1400</v>
@@ -1877,10 +1877,10 @@
         <v>600</v>
       </c>
       <c r="I26" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="J26" s="3">
-        <v>-20200</v>
+        <v>-20900</v>
       </c>
       <c r="K26" s="3">
         <v>1700</v>
@@ -1930,16 +1930,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="E27" s="3">
-        <v>-12400</v>
+        <v>-12700</v>
       </c>
       <c r="F27" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G27" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="H27" s="3">
         <v>400</v>
@@ -1948,7 +1948,7 @@
         <v>-1500</v>
       </c>
       <c r="J27" s="3">
-        <v>-20000</v>
+        <v>-20600</v>
       </c>
       <c r="K27" s="3">
         <v>1700</v>
@@ -2338,16 +2338,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="E33" s="3">
-        <v>-12400</v>
+        <v>-12700</v>
       </c>
       <c r="F33" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G33" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="H33" s="3">
         <v>400</v>
@@ -2356,7 +2356,7 @@
         <v>-1500</v>
       </c>
       <c r="J33" s="3">
-        <v>-20000</v>
+        <v>-20600</v>
       </c>
       <c r="K33" s="3">
         <v>1700</v>
@@ -2474,16 +2474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="E35" s="3">
-        <v>-12400</v>
+        <v>-12700</v>
       </c>
       <c r="F35" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G35" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="H35" s="3">
         <v>400</v>
@@ -2492,7 +2492,7 @@
         <v>-1500</v>
       </c>
       <c r="J35" s="3">
-        <v>-20000</v>
+        <v>-20600</v>
       </c>
       <c r="K35" s="3">
         <v>1700</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36500</v>
+        <v>37700</v>
       </c>
       <c r="E41" s="3">
-        <v>58200</v>
+        <v>60000</v>
       </c>
       <c r="F41" s="3">
-        <v>52700</v>
+        <v>54300</v>
       </c>
       <c r="G41" s="3">
-        <v>61100</v>
+        <v>63000</v>
       </c>
       <c r="H41" s="3">
-        <v>58900</v>
+        <v>60700</v>
       </c>
       <c r="I41" s="3">
-        <v>59900</v>
+        <v>61800</v>
       </c>
       <c r="J41" s="3">
-        <v>56300</v>
+        <v>58100</v>
       </c>
       <c r="K41" s="3">
         <v>83200</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34200</v>
+        <v>35300</v>
       </c>
       <c r="E42" s="3">
-        <v>34500</v>
+        <v>35600</v>
       </c>
       <c r="F42" s="3">
-        <v>17800</v>
+        <v>18300</v>
       </c>
       <c r="G42" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="H42" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="I42" s="3">
         <v>1400</v>
       </c>
       <c r="J42" s="3">
-        <v>26700</v>
+        <v>27500</v>
       </c>
       <c r="K42" s="3">
         <v>26100</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H43" s="3">
         <v>2400</v>
       </c>
-      <c r="E43" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2300</v>
-      </c>
       <c r="I43" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J43" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="K43" s="3">
         <v>4000</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>73200</v>
+        <v>75500</v>
       </c>
       <c r="E46" s="3">
-        <v>94300</v>
+        <v>97300</v>
       </c>
       <c r="F46" s="3">
-        <v>71900</v>
+        <v>74200</v>
       </c>
       <c r="G46" s="3">
-        <v>67500</v>
+        <v>69600</v>
       </c>
       <c r="H46" s="3">
+        <v>68000</v>
+      </c>
+      <c r="I46" s="3">
         <v>65900</v>
       </c>
-      <c r="I46" s="3">
-        <v>63800</v>
-      </c>
       <c r="J46" s="3">
-        <v>85800</v>
+        <v>88500</v>
       </c>
       <c r="K46" s="3">
         <v>113300</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>27900</v>
+        <v>28700</v>
       </c>
       <c r="G47" s="3">
-        <v>38100</v>
+        <v>39400</v>
       </c>
       <c r="H47" s="3">
-        <v>39400</v>
+        <v>40700</v>
       </c>
       <c r="I47" s="3">
-        <v>45100</v>
+        <v>46500</v>
       </c>
       <c r="J47" s="3">
-        <v>14700</v>
+        <v>15200</v>
       </c>
       <c r="K47" s="3">
         <v>200</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="E48" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="F48" s="3">
-        <v>23200</v>
+        <v>23900</v>
       </c>
       <c r="G48" s="3">
-        <v>28300</v>
+        <v>29200</v>
       </c>
       <c r="H48" s="3">
-        <v>29500</v>
+        <v>30400</v>
       </c>
       <c r="I48" s="3">
-        <v>28800</v>
+        <v>29700</v>
       </c>
       <c r="J48" s="3">
-        <v>29200</v>
+        <v>30100</v>
       </c>
       <c r="K48" s="3">
         <v>34000</v>
@@ -3217,19 +3217,19 @@
         <v>600</v>
       </c>
       <c r="F49" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="G49" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="H49" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="I49" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J49" s="3">
         <v>6300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>6100</v>
       </c>
       <c r="K49" s="3">
         <v>28100</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E52" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="F52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G52" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I52" s="3">
         <v>5500</v>
       </c>
-      <c r="G52" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>5300</v>
-      </c>
       <c r="J52" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="K52" s="3">
         <v>9000</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>83900</v>
+        <v>86500</v>
       </c>
       <c r="E54" s="3">
-        <v>107200</v>
+        <v>110600</v>
       </c>
       <c r="F54" s="3">
-        <v>134600</v>
+        <v>138900</v>
       </c>
       <c r="G54" s="3">
-        <v>146200</v>
+        <v>150800</v>
       </c>
       <c r="H54" s="3">
-        <v>146800</v>
+        <v>151500</v>
       </c>
       <c r="I54" s="3">
-        <v>149300</v>
+        <v>154000</v>
       </c>
       <c r="J54" s="3">
-        <v>144400</v>
+        <v>149000</v>
       </c>
       <c r="K54" s="3">
         <v>184600</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12900</v>
+        <v>13300</v>
       </c>
       <c r="E59" s="3">
-        <v>27200</v>
+        <v>28000</v>
       </c>
       <c r="F59" s="3">
-        <v>31400</v>
+        <v>32400</v>
       </c>
       <c r="G59" s="3">
-        <v>34500</v>
+        <v>35600</v>
       </c>
       <c r="H59" s="3">
-        <v>31900</v>
+        <v>32900</v>
       </c>
       <c r="I59" s="3">
-        <v>34000</v>
+        <v>35100</v>
       </c>
       <c r="J59" s="3">
-        <v>29500</v>
+        <v>30400</v>
       </c>
       <c r="K59" s="3">
         <v>39400</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13000</v>
+        <v>13400</v>
       </c>
       <c r="E60" s="3">
-        <v>27500</v>
+        <v>28300</v>
       </c>
       <c r="F60" s="3">
-        <v>31600</v>
+        <v>32600</v>
       </c>
       <c r="G60" s="3">
-        <v>34800</v>
+        <v>35900</v>
       </c>
       <c r="H60" s="3">
-        <v>32200</v>
+        <v>33200</v>
       </c>
       <c r="I60" s="3">
-        <v>34100</v>
+        <v>35200</v>
       </c>
       <c r="J60" s="3">
-        <v>29700</v>
+        <v>30600</v>
       </c>
       <c r="K60" s="3">
         <v>39600</v>
@@ -4017,19 +4017,19 @@
         <v>1400</v>
       </c>
       <c r="F62" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="G62" s="3">
-        <v>19100</v>
+        <v>19700</v>
       </c>
       <c r="H62" s="3">
-        <v>19200</v>
+        <v>19800</v>
       </c>
       <c r="I62" s="3">
-        <v>20400</v>
+        <v>21000</v>
       </c>
       <c r="J62" s="3">
-        <v>20800</v>
+        <v>21500</v>
       </c>
       <c r="K62" s="3">
         <v>24800</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21800</v>
+        <v>22500</v>
       </c>
       <c r="E66" s="3">
-        <v>28800</v>
+        <v>29700</v>
       </c>
       <c r="F66" s="3">
-        <v>52700</v>
+        <v>54400</v>
       </c>
       <c r="G66" s="3">
-        <v>53900</v>
+        <v>55600</v>
       </c>
       <c r="H66" s="3">
-        <v>51400</v>
+        <v>53100</v>
       </c>
       <c r="I66" s="3">
-        <v>54500</v>
+        <v>56300</v>
       </c>
       <c r="J66" s="3">
-        <v>56600</v>
+        <v>58400</v>
       </c>
       <c r="K66" s="3">
         <v>64500</v>
@@ -4649,13 +4649,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-35200</v>
+        <v>-36300</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F72" s="3">
-        <v>-19200</v>
+        <v>-19900</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
@@ -4667,7 +4667,7 @@
         <v>8</v>
       </c>
       <c r="J72" s="3">
-        <v>-15300</v>
+        <v>-15800</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>62100</v>
+        <v>64000</v>
       </c>
       <c r="E76" s="3">
-        <v>78400</v>
+        <v>80900</v>
       </c>
       <c r="F76" s="3">
-        <v>81900</v>
+        <v>84500</v>
       </c>
       <c r="G76" s="3">
-        <v>92300</v>
+        <v>95300</v>
       </c>
       <c r="H76" s="3">
-        <v>95400</v>
+        <v>98400</v>
       </c>
       <c r="I76" s="3">
-        <v>94700</v>
+        <v>97800</v>
       </c>
       <c r="J76" s="3">
-        <v>87800</v>
+        <v>90600</v>
       </c>
       <c r="K76" s="3">
         <v>120100</v>
@@ -5130,16 +5130,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="E81" s="3">
-        <v>-12400</v>
+        <v>-12700</v>
       </c>
       <c r="F81" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G81" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="H81" s="3">
         <v>400</v>
@@ -5148,7 +5148,7 @@
         <v>-1500</v>
       </c>
       <c r="J81" s="3">
-        <v>-20000</v>
+        <v>-20600</v>
       </c>
       <c r="K81" s="3">
         <v>1700</v>

--- a/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="E8" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="F8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H8" s="3">
+        <v>11900</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J8" s="3">
         <v>10100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>9700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>12000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>8400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>10200</v>
       </c>
       <c r="K8" s="3">
         <v>15300</v>
@@ -838,13 +838,13 @@
         <v>5500</v>
       </c>
       <c r="E9" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="F9" s="3">
         <v>6000</v>
       </c>
       <c r="G9" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="H9" s="3">
         <v>6900</v>
@@ -903,13 +903,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E10" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="F10" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="G10" s="3">
         <v>3600</v>
@@ -921,7 +921,7 @@
         <v>3200</v>
       </c>
       <c r="J10" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="K10" s="3">
         <v>7800</v>
@@ -1151,7 +1151,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>33300</v>
+      </c>
+      <c r="F17" s="3">
         <v>11200</v>
       </c>
-      <c r="E17" s="3">
-        <v>33700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>11300</v>
-      </c>
       <c r="G17" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="H17" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="I17" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="J17" s="3">
-        <v>34400</v>
+        <v>34000</v>
       </c>
       <c r="K17" s="3">
         <v>13700</v>
@@ -1363,7 +1363,7 @@
         <v>-900</v>
       </c>
       <c r="E18" s="3">
-        <v>-8000</v>
+        <v>-7900</v>
       </c>
       <c r="F18" s="3">
         <v>-1200</v>
@@ -1378,7 +1378,7 @@
         <v>-1800</v>
       </c>
       <c r="J18" s="3">
-        <v>-24100</v>
+        <v>-23900</v>
       </c>
       <c r="K18" s="3">
         <v>1600</v>
@@ -1661,7 +1661,7 @@
         <v>-1400</v>
       </c>
       <c r="E23" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="F23" s="3">
         <v>-700</v>
@@ -1673,10 +1673,10 @@
         <v>900</v>
       </c>
       <c r="I23" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J23" s="3">
-        <v>-23100</v>
+        <v>-22900</v>
       </c>
       <c r="K23" s="3">
         <v>2600</v>
@@ -1744,7 +1744,7 @@
         <v>-100</v>
       </c>
       <c r="J24" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="K24" s="3">
         <v>900</v>
@@ -1865,7 +1865,7 @@
         <v>-4200</v>
       </c>
       <c r="E26" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="F26" s="3">
         <v>-1400</v>
@@ -1880,7 +1880,7 @@
         <v>-1500</v>
       </c>
       <c r="J26" s="3">
-        <v>-20900</v>
+        <v>-20700</v>
       </c>
       <c r="K26" s="3">
         <v>1700</v>
@@ -1933,7 +1933,7 @@
         <v>-3500</v>
       </c>
       <c r="E27" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="F27" s="3">
         <v>-1700</v>
@@ -1948,7 +1948,7 @@
         <v>-1500</v>
       </c>
       <c r="J27" s="3">
-        <v>-20600</v>
+        <v>-20400</v>
       </c>
       <c r="K27" s="3">
         <v>1700</v>
@@ -2341,7 +2341,7 @@
         <v>-3500</v>
       </c>
       <c r="E33" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="F33" s="3">
         <v>-1700</v>
@@ -2356,7 +2356,7 @@
         <v>-1500</v>
       </c>
       <c r="J33" s="3">
-        <v>-20600</v>
+        <v>-20400</v>
       </c>
       <c r="K33" s="3">
         <v>1700</v>
@@ -2477,7 +2477,7 @@
         <v>-3500</v>
       </c>
       <c r="E35" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="F35" s="3">
         <v>-1700</v>
@@ -2492,7 +2492,7 @@
         <v>-1500</v>
       </c>
       <c r="J35" s="3">
-        <v>-20600</v>
+        <v>-20400</v>
       </c>
       <c r="K35" s="3">
         <v>1700</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37700</v>
+        <v>37300</v>
       </c>
       <c r="E41" s="3">
-        <v>60000</v>
+        <v>59400</v>
       </c>
       <c r="F41" s="3">
-        <v>54300</v>
+        <v>53800</v>
       </c>
       <c r="G41" s="3">
-        <v>63000</v>
+        <v>62400</v>
       </c>
       <c r="H41" s="3">
-        <v>60700</v>
+        <v>60100</v>
       </c>
       <c r="I41" s="3">
-        <v>61800</v>
+        <v>61200</v>
       </c>
       <c r="J41" s="3">
-        <v>58100</v>
+        <v>57500</v>
       </c>
       <c r="K41" s="3">
         <v>83200</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E42" s="3">
         <v>35300</v>
       </c>
-      <c r="E42" s="3">
-        <v>35600</v>
-      </c>
       <c r="F42" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="G42" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="H42" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="I42" s="3">
         <v>1400</v>
       </c>
       <c r="J42" s="3">
-        <v>27500</v>
+        <v>27300</v>
       </c>
       <c r="K42" s="3">
         <v>26100</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>75500</v>
+        <v>74800</v>
       </c>
       <c r="E46" s="3">
-        <v>97300</v>
+        <v>96300</v>
       </c>
       <c r="F46" s="3">
-        <v>74200</v>
+        <v>73500</v>
       </c>
       <c r="G46" s="3">
-        <v>69600</v>
+        <v>68900</v>
       </c>
       <c r="H46" s="3">
-        <v>68000</v>
+        <v>67300</v>
       </c>
       <c r="I46" s="3">
-        <v>65900</v>
+        <v>65200</v>
       </c>
       <c r="J46" s="3">
-        <v>88500</v>
+        <v>87600</v>
       </c>
       <c r="K46" s="3">
         <v>113300</v>
@@ -3081,19 +3081,19 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>28700</v>
+        <v>28400</v>
       </c>
       <c r="G47" s="3">
-        <v>39400</v>
+        <v>39000</v>
       </c>
       <c r="H47" s="3">
-        <v>40700</v>
+        <v>40300</v>
       </c>
       <c r="I47" s="3">
-        <v>46500</v>
+        <v>46000</v>
       </c>
       <c r="J47" s="3">
-        <v>15200</v>
+        <v>15000</v>
       </c>
       <c r="K47" s="3">
         <v>200</v>
@@ -3146,22 +3146,22 @@
         <v>6300</v>
       </c>
       <c r="E48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="F48" s="3">
-        <v>23900</v>
+        <v>23700</v>
       </c>
       <c r="G48" s="3">
-        <v>29200</v>
+        <v>28900</v>
       </c>
       <c r="H48" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="I48" s="3">
-        <v>29700</v>
+        <v>29400</v>
       </c>
       <c r="J48" s="3">
-        <v>30100</v>
+        <v>29800</v>
       </c>
       <c r="K48" s="3">
         <v>34000</v>
@@ -3220,16 +3220,16 @@
         <v>6300</v>
       </c>
       <c r="G49" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H49" s="3">
         <v>6400</v>
       </c>
       <c r="I49" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="J49" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="K49" s="3">
         <v>28100</v>
@@ -3418,22 +3418,22 @@
         <v>2200</v>
       </c>
       <c r="E52" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="F52" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="G52" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H52" s="3">
         <v>5900</v>
       </c>
       <c r="I52" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="J52" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="K52" s="3">
         <v>9000</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>86500</v>
+        <v>85700</v>
       </c>
       <c r="E54" s="3">
-        <v>110600</v>
+        <v>109500</v>
       </c>
       <c r="F54" s="3">
-        <v>138900</v>
+        <v>137500</v>
       </c>
       <c r="G54" s="3">
-        <v>150800</v>
+        <v>149300</v>
       </c>
       <c r="H54" s="3">
-        <v>151500</v>
+        <v>149900</v>
       </c>
       <c r="I54" s="3">
-        <v>154000</v>
+        <v>152400</v>
       </c>
       <c r="J54" s="3">
-        <v>149000</v>
+        <v>147500</v>
       </c>
       <c r="K54" s="3">
         <v>184600</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="E59" s="3">
-        <v>28000</v>
+        <v>27700</v>
       </c>
       <c r="F59" s="3">
-        <v>32400</v>
+        <v>32100</v>
       </c>
       <c r="G59" s="3">
-        <v>35600</v>
+        <v>35200</v>
       </c>
       <c r="H59" s="3">
-        <v>32900</v>
+        <v>32600</v>
       </c>
       <c r="I59" s="3">
-        <v>35100</v>
+        <v>34700</v>
       </c>
       <c r="J59" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="K59" s="3">
         <v>39400</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="E60" s="3">
-        <v>28300</v>
+        <v>28000</v>
       </c>
       <c r="F60" s="3">
-        <v>32600</v>
+        <v>32300</v>
       </c>
       <c r="G60" s="3">
-        <v>35900</v>
+        <v>35500</v>
       </c>
       <c r="H60" s="3">
-        <v>33200</v>
+        <v>32900</v>
       </c>
       <c r="I60" s="3">
-        <v>35200</v>
+        <v>34900</v>
       </c>
       <c r="J60" s="3">
-        <v>30600</v>
+        <v>30300</v>
       </c>
       <c r="K60" s="3">
         <v>39600</v>
@@ -4017,19 +4017,19 @@
         <v>1400</v>
       </c>
       <c r="F62" s="3">
-        <v>13500</v>
+        <v>13300</v>
       </c>
       <c r="G62" s="3">
-        <v>19700</v>
+        <v>19500</v>
       </c>
       <c r="H62" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="I62" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="J62" s="3">
-        <v>21500</v>
+        <v>21300</v>
       </c>
       <c r="K62" s="3">
         <v>24800</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22500</v>
+        <v>22300</v>
       </c>
       <c r="E66" s="3">
-        <v>29700</v>
+        <v>29400</v>
       </c>
       <c r="F66" s="3">
-        <v>54400</v>
+        <v>53800</v>
       </c>
       <c r="G66" s="3">
-        <v>55600</v>
+        <v>55000</v>
       </c>
       <c r="H66" s="3">
-        <v>53100</v>
+        <v>52500</v>
       </c>
       <c r="I66" s="3">
-        <v>56300</v>
+        <v>55700</v>
       </c>
       <c r="J66" s="3">
-        <v>58400</v>
+        <v>57800</v>
       </c>
       <c r="K66" s="3">
         <v>64500</v>
@@ -4649,13 +4649,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-36300</v>
+        <v>-35900</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F72" s="3">
-        <v>-19900</v>
+        <v>-19700</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
@@ -4667,7 +4667,7 @@
         <v>8</v>
       </c>
       <c r="J72" s="3">
-        <v>-15800</v>
+        <v>-15600</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>64000</v>
+        <v>63400</v>
       </c>
       <c r="E76" s="3">
-        <v>80900</v>
+        <v>80000</v>
       </c>
       <c r="F76" s="3">
-        <v>84500</v>
+        <v>83700</v>
       </c>
       <c r="G76" s="3">
-        <v>95300</v>
+        <v>94300</v>
       </c>
       <c r="H76" s="3">
-        <v>98400</v>
+        <v>97400</v>
       </c>
       <c r="I76" s="3">
-        <v>97800</v>
+        <v>96800</v>
       </c>
       <c r="J76" s="3">
-        <v>90600</v>
+        <v>89700</v>
       </c>
       <c r="K76" s="3">
         <v>120100</v>
@@ -5133,7 +5133,7 @@
         <v>-3500</v>
       </c>
       <c r="E81" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="F81" s="3">
         <v>-1700</v>
@@ -5148,7 +5148,7 @@
         <v>-1500</v>
       </c>
       <c r="J81" s="3">
-        <v>-20600</v>
+        <v>-20400</v>
       </c>
       <c r="K81" s="3">
         <v>1700</v>

--- a/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>FEDU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -668,305 +668,331 @@
     <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G8" s="3">
+        <v>24600</v>
+      </c>
+      <c r="H8" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K8" s="3">
+        <v>8300</v>
+      </c>
+      <c r="L8" s="3">
+        <v>10100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>15300</v>
+      </c>
+      <c r="N8" s="3">
+        <v>20200</v>
+      </c>
+      <c r="O8" s="3">
+        <v>13100</v>
+      </c>
+      <c r="P8" s="3">
+        <v>9800</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>13200</v>
+      </c>
+      <c r="R8" s="3">
+        <v>13100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>12400</v>
+      </c>
+      <c r="T8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="U8" s="3">
+        <v>12900</v>
+      </c>
+      <c r="V8" s="3">
+        <v>11500</v>
+      </c>
+      <c r="W8" s="3">
         <v>10200</v>
       </c>
-      <c r="E8" s="3">
-        <v>25400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>11900</v>
-      </c>
-      <c r="I8" s="3">
-        <v>8300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>10100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>15300</v>
-      </c>
-      <c r="L8" s="3">
-        <v>20200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>13100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>9800</v>
-      </c>
-      <c r="O8" s="3">
-        <v>13200</v>
-      </c>
-      <c r="P8" s="3">
-        <v>13100</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>12400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>10000</v>
-      </c>
-      <c r="S8" s="3">
-        <v>12900</v>
-      </c>
-      <c r="T8" s="3">
-        <v>11500</v>
-      </c>
-      <c r="U8" s="3">
-        <v>10200</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>7000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>8700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5500</v>
+        <v>1300</v>
       </c>
       <c r="E9" s="3">
-        <v>15800</v>
+        <v>1400</v>
       </c>
       <c r="F9" s="3">
-        <v>6000</v>
+        <v>5300</v>
       </c>
       <c r="G9" s="3">
-        <v>6000</v>
+        <v>15300</v>
       </c>
       <c r="H9" s="3">
-        <v>6900</v>
+        <v>5800</v>
       </c>
       <c r="I9" s="3">
-        <v>5200</v>
+        <v>5800</v>
       </c>
       <c r="J9" s="3">
         <v>6600</v>
       </c>
       <c r="K9" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L9" s="3">
+        <v>6600</v>
+      </c>
+      <c r="M9" s="3">
         <v>7400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>9100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>7100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>7000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>6300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>6200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>5500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>4500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>4100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>3200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>3000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>3400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4700</v>
+        <v>1500</v>
       </c>
       <c r="E10" s="3">
-        <v>9600</v>
+        <v>500</v>
       </c>
       <c r="F10" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G10" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M10" s="3">
+        <v>7800</v>
+      </c>
+      <c r="N10" s="3">
+        <v>11100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>6000</v>
+      </c>
+      <c r="P10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="S10" s="3">
+        <v>6900</v>
+      </c>
+      <c r="T10" s="3">
+        <v>5600</v>
+      </c>
+      <c r="U10" s="3">
+        <v>8500</v>
+      </c>
+      <c r="V10" s="3">
+        <v>7300</v>
+      </c>
+      <c r="W10" s="3">
+        <v>7000</v>
+      </c>
+      <c r="X10" s="3">
         <v>4000</v>
       </c>
-      <c r="G10" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="Y10" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Z10" s="3">
         <v>5100</v>
       </c>
-      <c r="I10" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>7800</v>
-      </c>
-      <c r="L10" s="3">
-        <v>11100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>6000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>2800</v>
-      </c>
-      <c r="O10" s="3">
-        <v>7000</v>
-      </c>
-      <c r="P10" s="3">
-        <v>6800</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>6900</v>
-      </c>
-      <c r="R10" s="3">
-        <v>5600</v>
-      </c>
-      <c r="S10" s="3">
-        <v>8500</v>
-      </c>
-      <c r="T10" s="3">
-        <v>7300</v>
-      </c>
-      <c r="U10" s="3">
-        <v>7000</v>
-      </c>
-      <c r="V10" s="3">
-        <v>4000</v>
-      </c>
-      <c r="W10" s="3">
-        <v>5300</v>
-      </c>
-      <c r="X10" s="3">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,38 +1161,44 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
-        <v>7500</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>20700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1171,11 +1211,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1187,16 +1227,22 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,65 +1338,67 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>32300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I17" s="3">
         <v>11100</v>
       </c>
-      <c r="E17" s="3">
-        <v>33300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>11200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>11400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>12300</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K17" s="3">
         <v>10100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>34000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>13700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>15700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>13400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>14400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>12100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>11900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>10200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>9700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>9700</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1354,65 +1408,71 @@
       <c r="X17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-400</v>
       </c>
       <c r="I18" s="3">
         <v>-1800</v>
       </c>
       <c r="J18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L18" s="3">
         <v>-23900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-4600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3200</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1422,8 +1482,14 @@
       <c r="X18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,65 +1514,67 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1516,8 +1584,14 @@
       <c r="X20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1658,14 @@
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1732,162 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1400</v>
+        <v>-1100</v>
       </c>
       <c r="E23" s="3">
-        <v>-7200</v>
+        <v>-3400</v>
       </c>
       <c r="F23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
-        <v>900</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-22900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>3400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>3300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>3000</v>
-      </c>
-      <c r="V23" s="3">
-        <v>1000</v>
       </c>
       <c r="W23" s="3">
         <v>3000</v>
       </c>
       <c r="X23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y23" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2800</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
+        <v>600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M24" s="3">
+        <v>900</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="P24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>600</v>
+      </c>
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>700</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>600</v>
-      </c>
-      <c r="P24" s="3">
-        <v>900</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-1600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,65 +1954,71 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4200</v>
+        <v>-1300</v>
       </c>
       <c r="E26" s="3">
-        <v>-7500</v>
+        <v>-3300</v>
       </c>
       <c r="F26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-20700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1924,65 +2028,71 @@
       <c r="X26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3500</v>
+        <v>-1100</v>
       </c>
       <c r="E27" s="3">
-        <v>-12600</v>
+        <v>-3000</v>
       </c>
       <c r="F27" s="3">
-        <v>-1700</v>
+        <v>-3400</v>
       </c>
       <c r="G27" s="3">
-        <v>-1300</v>
+        <v>-12200</v>
       </c>
       <c r="H27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-20400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1600</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1992,8 +2102,14 @@
       <c r="X27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,65 +2398,71 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2332,65 +2472,71 @@
       <c r="X32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3500</v>
+        <v>-1100</v>
       </c>
       <c r="E33" s="3">
-        <v>-12600</v>
+        <v>-3000</v>
       </c>
       <c r="F33" s="3">
-        <v>-1700</v>
+        <v>-3400</v>
       </c>
       <c r="G33" s="3">
-        <v>-1300</v>
+        <v>-12200</v>
       </c>
       <c r="H33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-20400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1600</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2400,8 +2546,14 @@
       <c r="X33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,65 +2620,71 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3500</v>
+        <v>-1100</v>
       </c>
       <c r="E35" s="3">
-        <v>-12600</v>
+        <v>-3000</v>
       </c>
       <c r="F35" s="3">
-        <v>-1700</v>
+        <v>-3400</v>
       </c>
       <c r="G35" s="3">
-        <v>-1300</v>
+        <v>-12200</v>
       </c>
       <c r="H35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-20400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1600</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2536,81 +2694,93 @@
       <c r="X35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,121 +2833,129 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37300</v>
+        <v>24200</v>
       </c>
       <c r="E41" s="3">
-        <v>59400</v>
+        <v>45200</v>
       </c>
       <c r="F41" s="3">
-        <v>53800</v>
+        <v>36200</v>
       </c>
       <c r="G41" s="3">
-        <v>62400</v>
+        <v>57600</v>
       </c>
       <c r="H41" s="3">
-        <v>60100</v>
+        <v>52100</v>
       </c>
       <c r="I41" s="3">
+        <v>60500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>58300</v>
+      </c>
+      <c r="K41" s="3">
         <v>61200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>57500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>83200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>80800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>78700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>66900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>72200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>78500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>84000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>86600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>137300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>43700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>42100</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35000</v>
+        <v>43600</v>
       </c>
       <c r="E42" s="3">
-        <v>35300</v>
+        <v>4500</v>
       </c>
       <c r="F42" s="3">
-        <v>18100</v>
+        <v>33900</v>
       </c>
       <c r="G42" s="3">
-        <v>4600</v>
+        <v>34200</v>
       </c>
       <c r="H42" s="3">
-        <v>4800</v>
+        <v>17600</v>
       </c>
       <c r="I42" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>27300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>26100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>33000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>31300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>5000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>4900</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2788,85 +2968,97 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="E43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="O43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="U43" s="3">
         <v>2400</v>
       </c>
-      <c r="I43" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>4000</v>
-      </c>
-      <c r="L43" s="3">
-        <v>4300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>3900</v>
-      </c>
-      <c r="N43" s="3">
-        <v>3600</v>
-      </c>
-      <c r="O43" s="3">
-        <v>3400</v>
-      </c>
-      <c r="P43" s="3">
-        <v>3500</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>3600</v>
-      </c>
-      <c r="R43" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S43" s="3">
-        <v>2400</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>8500</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3125,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2980,283 +3178,307 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3">
         <v>1100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>74800</v>
+        <v>70400</v>
       </c>
       <c r="E46" s="3">
-        <v>96300</v>
+        <v>51900</v>
       </c>
       <c r="F46" s="3">
-        <v>73500</v>
+        <v>72500</v>
       </c>
       <c r="G46" s="3">
-        <v>68900</v>
+        <v>93400</v>
       </c>
       <c r="H46" s="3">
-        <v>67300</v>
+        <v>71200</v>
       </c>
       <c r="I46" s="3">
+        <v>66800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>65300</v>
+      </c>
+      <c r="K46" s="3">
         <v>65200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>87600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>113300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>118200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>113900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>75400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>80500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>82000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>87600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>88300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>139800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>44900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>50600</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2000</v>
+        <v>5700</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="F47" s="3">
-        <v>28400</v>
+        <v>1900</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>27600</v>
+      </c>
+      <c r="I47" s="3">
+        <v>37800</v>
+      </c>
+      <c r="J47" s="3">
         <v>39000</v>
       </c>
-      <c r="H47" s="3">
-        <v>40300</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>46000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>15000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>200</v>
-      </c>
-      <c r="L47" s="3">
-        <v>200</v>
       </c>
       <c r="M47" s="3">
         <v>200</v>
       </c>
       <c r="N47" s="3">
+        <v>200</v>
+      </c>
+      <c r="O47" s="3">
+        <v>200</v>
+      </c>
+      <c r="P47" s="3">
         <v>24800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>24200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>23000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>22400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>23500</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
+      <c r="W47" s="3">
+        <v>0</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="E48" s="3">
-        <v>5800</v>
+        <v>6400</v>
       </c>
       <c r="F48" s="3">
-        <v>23700</v>
+        <v>6100</v>
       </c>
       <c r="G48" s="3">
-        <v>28900</v>
+        <v>5600</v>
       </c>
       <c r="H48" s="3">
-        <v>30100</v>
+        <v>22900</v>
       </c>
       <c r="I48" s="3">
+        <v>28000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K48" s="3">
         <v>29400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>29800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>34000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>37400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>38400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>4100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1500</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>400</v>
+      </c>
+      <c r="G49" s="3">
         <v>500</v>
       </c>
-      <c r="E49" s="3">
-        <v>600</v>
-      </c>
-      <c r="F49" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>6300</v>
-      </c>
       <c r="H49" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="I49" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="J49" s="3">
         <v>6200</v>
       </c>
       <c r="K49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="L49" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M49" s="3">
         <v>28100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>30000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>29400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>29500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>28400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>21800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>21600</v>
-      </c>
-      <c r="R49" s="3">
-        <v>100</v>
-      </c>
-      <c r="S49" s="3">
-        <v>100</v>
       </c>
       <c r="T49" s="3">
         <v>100</v>
@@ -3264,17 +3486,23 @@
       <c r="U49" s="3">
         <v>100</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
+      <c r="V49" s="3">
+        <v>100</v>
+      </c>
+      <c r="W49" s="3">
+        <v>100</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3643,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>6700</v>
+        <v>1800</v>
       </c>
       <c r="F52" s="3">
-        <v>5600</v>
+        <v>2100</v>
       </c>
       <c r="G52" s="3">
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="H52" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="I52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K52" s="3">
         <v>5400</v>
-      </c>
-      <c r="J52" s="3">
-        <v>8800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>9000</v>
       </c>
       <c r="L52" s="3">
         <v>8800</v>
       </c>
       <c r="M52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="N52" s="3">
+        <v>8800</v>
+      </c>
+      <c r="O52" s="3">
         <v>8400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>8000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2500</v>
-      </c>
-      <c r="P52" s="3">
-        <v>2200</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>2300</v>
       </c>
       <c r="R52" s="3">
         <v>2200</v>
       </c>
       <c r="S52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U52" s="3">
         <v>1700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1200</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3791,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>85700</v>
+        <v>82800</v>
       </c>
       <c r="E54" s="3">
-        <v>109500</v>
+        <v>84500</v>
       </c>
       <c r="F54" s="3">
-        <v>137500</v>
+        <v>83000</v>
       </c>
       <c r="G54" s="3">
-        <v>149300</v>
+        <v>106100</v>
       </c>
       <c r="H54" s="3">
-        <v>149900</v>
+        <v>133300</v>
       </c>
       <c r="I54" s="3">
+        <v>144700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>145300</v>
+      </c>
+      <c r="K54" s="3">
         <v>152400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>147500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>184600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>194600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>190300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>141800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>140000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>133600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>137900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>117600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>144700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>49100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>53500</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3925,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3995,14 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3742,44 +4010,44 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2300</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
@@ -3801,144 +4069,162 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13200</v>
+        <v>11900</v>
       </c>
       <c r="E59" s="3">
-        <v>27700</v>
+        <v>12500</v>
       </c>
       <c r="F59" s="3">
-        <v>32100</v>
+        <v>12800</v>
       </c>
       <c r="G59" s="3">
-        <v>35200</v>
+        <v>26900</v>
       </c>
       <c r="H59" s="3">
-        <v>32600</v>
+        <v>31100</v>
       </c>
       <c r="I59" s="3">
+        <v>34200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K59" s="3">
         <v>34700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>30100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>39400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>30900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>32900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>23400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>22200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>28300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>37100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>19900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>29700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>18100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>25200</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13300</v>
+        <v>12000</v>
       </c>
       <c r="E60" s="3">
-        <v>28000</v>
+        <v>12600</v>
       </c>
       <c r="F60" s="3">
-        <v>32300</v>
+        <v>12900</v>
       </c>
       <c r="G60" s="3">
-        <v>35500</v>
+        <v>27200</v>
       </c>
       <c r="H60" s="3">
-        <v>32900</v>
+        <v>31300</v>
       </c>
       <c r="I60" s="3">
+        <v>34400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K60" s="3">
         <v>34900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>30300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>39600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>31700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>33800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>25000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>24400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>28300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>37100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>19900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>29700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>18100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>25200</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,76 +4291,88 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="F62" s="3">
-        <v>13300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>19500</v>
-      </c>
       <c r="H62" s="3">
-        <v>19600</v>
+        <v>12900</v>
       </c>
       <c r="I62" s="3">
+        <v>18900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K62" s="3">
         <v>20800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>21300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>24800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>34700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>36700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
+      <c r="W62" s="3">
+        <v>0</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4587,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22300</v>
+        <v>19700</v>
       </c>
       <c r="E66" s="3">
-        <v>29400</v>
+        <v>13600</v>
       </c>
       <c r="F66" s="3">
-        <v>53800</v>
+        <v>21600</v>
       </c>
       <c r="G66" s="3">
-        <v>55000</v>
+        <v>28500</v>
       </c>
       <c r="H66" s="3">
-        <v>52500</v>
+        <v>52200</v>
       </c>
       <c r="I66" s="3">
+        <v>53300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>50900</v>
+      </c>
+      <c r="K66" s="3">
         <v>55700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>57800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>64500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>66400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>70500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>33400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>32600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>32900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>41600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>20900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>30700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>19100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>26400</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4561,22 +4897,28 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>24300</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>24300</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4985,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-35900</v>
+        <v>-38900</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F72" s="3">
-        <v>-19700</v>
+        <v>-34800</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
+      <c r="H72" s="3">
+        <v>-19100</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>-15600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3">
         <v>-100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1100</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
         <v>4100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>2400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-100</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5281,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>63400</v>
+        <v>63100</v>
       </c>
       <c r="E76" s="3">
-        <v>80000</v>
+        <v>71000</v>
       </c>
       <c r="F76" s="3">
-        <v>83700</v>
+        <v>61400</v>
       </c>
       <c r="G76" s="3">
-        <v>94300</v>
+        <v>77600</v>
       </c>
       <c r="H76" s="3">
-        <v>97400</v>
+        <v>81100</v>
       </c>
       <c r="I76" s="3">
+        <v>91400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>94400</v>
+      </c>
+      <c r="K76" s="3">
         <v>96800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>89700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>120100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>128200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>119800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>108400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>107400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>100700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>96300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>96700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>114000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>5700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2800</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,138 +5429,150 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3500</v>
+        <v>-1100</v>
       </c>
       <c r="E81" s="3">
-        <v>-12600</v>
+        <v>-3000</v>
       </c>
       <c r="F81" s="3">
-        <v>-1700</v>
+        <v>-3400</v>
       </c>
       <c r="G81" s="3">
-        <v>-1300</v>
+        <v>-12200</v>
       </c>
       <c r="H81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-20400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1600</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>8</v>
       </c>
@@ -5192,8 +5582,14 @@
       <c r="X81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5684,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6054,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +6128,14 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6160,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6230,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6378,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6452,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6776,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6850,14 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6924,14 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6996,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FEDU_QTR_FIN.xlsx
@@ -784,7 +784,7 @@
         <v>9900</v>
       </c>
       <c r="G8" s="3">
-        <v>24600</v>
+        <v>24700</v>
       </c>
       <c r="H8" s="3">
         <v>9700</v>
@@ -793,7 +793,7 @@
         <v>9300</v>
       </c>
       <c r="J8" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="K8" s="3">
         <v>8300</v>
@@ -858,16 +858,16 @@
         <v>5300</v>
       </c>
       <c r="G9" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="H9" s="3">
         <v>5800</v>
       </c>
       <c r="I9" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="J9" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="K9" s="3">
         <v>5200</v>
@@ -1355,10 +1355,10 @@
         <v>10800</v>
       </c>
       <c r="G17" s="3">
-        <v>32300</v>
+        <v>32400</v>
       </c>
       <c r="H17" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="I17" s="3">
         <v>11100</v>
@@ -1830,7 +1830,7 @@
         <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I24" s="3">
         <v>-200</v>
@@ -2049,7 +2049,7 @@
         <v>-3400</v>
       </c>
       <c r="G27" s="3">
-        <v>-12200</v>
+        <v>-12300</v>
       </c>
       <c r="H27" s="3">
         <v>-1600</v>
@@ -2493,7 +2493,7 @@
         <v>-3400</v>
       </c>
       <c r="G33" s="3">
-        <v>-12200</v>
+        <v>-12300</v>
       </c>
       <c r="H33" s="3">
         <v>-1600</v>
@@ -2641,7 +2641,7 @@
         <v>-3400</v>
       </c>
       <c r="G35" s="3">
-        <v>-12200</v>
+        <v>-12300</v>
       </c>
       <c r="H35" s="3">
         <v>-1600</v>
@@ -2841,25 +2841,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24200</v>
+        <v>24300</v>
       </c>
       <c r="E41" s="3">
-        <v>45200</v>
+        <v>45300</v>
       </c>
       <c r="F41" s="3">
         <v>36200</v>
       </c>
       <c r="G41" s="3">
-        <v>57600</v>
+        <v>57700</v>
       </c>
       <c r="H41" s="3">
-        <v>52100</v>
+        <v>52200</v>
       </c>
       <c r="I41" s="3">
-        <v>60500</v>
+        <v>60600</v>
       </c>
       <c r="J41" s="3">
-        <v>58300</v>
+        <v>58400</v>
       </c>
       <c r="K41" s="3">
         <v>61200</v>
@@ -2915,16 +2915,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>43600</v>
+        <v>43700</v>
       </c>
       <c r="E42" s="3">
         <v>4500</v>
       </c>
       <c r="F42" s="3">
-        <v>33900</v>
+        <v>34000</v>
       </c>
       <c r="G42" s="3">
-        <v>34200</v>
+        <v>34300</v>
       </c>
       <c r="H42" s="3">
         <v>17600</v>
@@ -3211,25 +3211,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>70400</v>
+        <v>70600</v>
       </c>
       <c r="E46" s="3">
-        <v>51900</v>
+        <v>52100</v>
       </c>
       <c r="F46" s="3">
-        <v>72500</v>
+        <v>72600</v>
       </c>
       <c r="G46" s="3">
-        <v>93400</v>
+        <v>93600</v>
       </c>
       <c r="H46" s="3">
-        <v>71200</v>
+        <v>71400</v>
       </c>
       <c r="I46" s="3">
-        <v>66800</v>
+        <v>66900</v>
       </c>
       <c r="J46" s="3">
-        <v>65300</v>
+        <v>65400</v>
       </c>
       <c r="K46" s="3">
         <v>65200</v>
@@ -3288,7 +3288,7 @@
         <v>5700</v>
       </c>
       <c r="E47" s="3">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="F47" s="3">
         <v>1900</v>
@@ -3303,7 +3303,7 @@
         <v>37800</v>
       </c>
       <c r="J47" s="3">
-        <v>39000</v>
+        <v>39100</v>
       </c>
       <c r="K47" s="3">
         <v>46000</v>
@@ -3368,16 +3368,16 @@
         <v>6100</v>
       </c>
       <c r="G48" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="H48" s="3">
-        <v>22900</v>
+        <v>23000</v>
       </c>
       <c r="I48" s="3">
         <v>28000</v>
       </c>
       <c r="J48" s="3">
-        <v>29200</v>
+        <v>29300</v>
       </c>
       <c r="K48" s="3">
         <v>29400</v>
@@ -3439,7 +3439,7 @@
         <v>400</v>
       </c>
       <c r="F49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G49" s="3">
         <v>500</v>
@@ -3448,7 +3448,7 @@
         <v>6100</v>
       </c>
       <c r="I49" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="J49" s="3">
         <v>6200</v>
@@ -3803,25 +3803,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>82800</v>
+        <v>83000</v>
       </c>
       <c r="E54" s="3">
-        <v>84500</v>
+        <v>84700</v>
       </c>
       <c r="F54" s="3">
-        <v>83000</v>
+        <v>83200</v>
       </c>
       <c r="G54" s="3">
-        <v>106100</v>
+        <v>106300</v>
       </c>
       <c r="H54" s="3">
-        <v>133300</v>
+        <v>133600</v>
       </c>
       <c r="I54" s="3">
-        <v>144700</v>
+        <v>145000</v>
       </c>
       <c r="J54" s="3">
-        <v>145300</v>
+        <v>145600</v>
       </c>
       <c r="K54" s="3">
         <v>152400</v>
@@ -4099,7 +4099,7 @@
         <v>34200</v>
       </c>
       <c r="J59" s="3">
-        <v>31600</v>
+        <v>31700</v>
       </c>
       <c r="K59" s="3">
         <v>34700</v>
@@ -4155,7 +4155,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="E60" s="3">
         <v>12600</v>
@@ -4170,10 +4170,10 @@
         <v>31300</v>
       </c>
       <c r="I60" s="3">
-        <v>34400</v>
+        <v>34500</v>
       </c>
       <c r="J60" s="3">
-        <v>31900</v>
+        <v>32000</v>
       </c>
       <c r="K60" s="3">
         <v>34900</v>
@@ -4315,13 +4315,13 @@
         <v>1400</v>
       </c>
       <c r="H62" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="I62" s="3">
         <v>18900</v>
       </c>
       <c r="J62" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="K62" s="3">
         <v>20800</v>
@@ -4599,7 +4599,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19700</v>
+        <v>19800</v>
       </c>
       <c r="E66" s="3">
         <v>13600</v>
@@ -4608,16 +4608,16 @@
         <v>21600</v>
       </c>
       <c r="G66" s="3">
-        <v>28500</v>
+        <v>28600</v>
       </c>
       <c r="H66" s="3">
-        <v>52200</v>
+        <v>52300</v>
       </c>
       <c r="I66" s="3">
-        <v>53300</v>
+        <v>53400</v>
       </c>
       <c r="J66" s="3">
-        <v>50900</v>
+        <v>51000</v>
       </c>
       <c r="K66" s="3">
         <v>55700</v>
@@ -4997,13 +4997,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-38900</v>
+        <v>-39000</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F72" s="3">
-        <v>-34800</v>
+        <v>-34900</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
@@ -5293,25 +5293,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="E76" s="3">
-        <v>71000</v>
+        <v>71100</v>
       </c>
       <c r="F76" s="3">
-        <v>61400</v>
+        <v>61600</v>
       </c>
       <c r="G76" s="3">
-        <v>77600</v>
+        <v>77700</v>
       </c>
       <c r="H76" s="3">
-        <v>81100</v>
+        <v>81300</v>
       </c>
       <c r="I76" s="3">
-        <v>91400</v>
+        <v>91600</v>
       </c>
       <c r="J76" s="3">
-        <v>94400</v>
+        <v>94600</v>
       </c>
       <c r="K76" s="3">
         <v>96800</v>
@@ -5529,7 +5529,7 @@
         <v>-3400</v>
       </c>
       <c r="G81" s="3">
-        <v>-12200</v>
+        <v>-12300</v>
       </c>
       <c r="H81" s="3">
         <v>-1600</v>
